--- a/DEV/org.openl.test/test-resources/functionality/SpreadsheetRange.xlsx
+++ b/DEV/org.openl.test/test-resources/functionality/SpreadsheetRange.xlsx
@@ -7,14 +7,24 @@
     <workbookView xWindow="120" yWindow="60" windowWidth="14355" windowHeight="12075"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sum" sheetId="2" r:id="rId1"/>
+    <sheet name="Range common type" sheetId="1" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_st1">#REF!</definedName>
+    <definedName name="_st11">#REF!</definedName>
+    <definedName name="_st2">#REF!</definedName>
+    <definedName name="_st3">#REF!</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
   <si>
     <t>_a</t>
   </si>
@@ -77,13 +87,159 @@
   </si>
   <si>
     <t>6.3</t>
+  </si>
+  <si>
+    <t>= (Integer) sum($KSD:$YBP)</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>= $Exchange Rate</t>
+  </si>
+  <si>
+    <t>XSD : Integer</t>
+  </si>
+  <si>
+    <t>YBP : Integer</t>
+  </si>
+  <si>
+    <t>KSD : Integer</t>
+  </si>
+  <si>
+    <t>DBP : Integer</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>FSD : Integer</t>
+  </si>
+  <si>
+    <t>_res_</t>
+  </si>
+  <si>
+    <t>GBP : Integer</t>
+  </si>
+  <si>
+    <t>Test TotalAssetsInteger TotalAssetsIntegerTest</t>
+  </si>
+  <si>
+    <t>USD : Integer</t>
+  </si>
+  <si>
+    <t>USDValue</t>
+  </si>
+  <si>
+    <t>Exchange Rate</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Spreadsheet Integer TotalAssetsInteger ()</t>
+  </si>
+  <si>
+    <t>= (Float) sum($USD:$GBP)</t>
+  </si>
+  <si>
+    <t>XSD : Float</t>
+  </si>
+  <si>
+    <t>FSD : Float</t>
+  </si>
+  <si>
+    <t>GBP : Float</t>
+  </si>
+  <si>
+    <t>USD : Float</t>
+  </si>
+  <si>
+    <t>Test TotalAssetsFloat TotalAssetsFloatTest</t>
+  </si>
+  <si>
+    <t>autoType</t>
+  </si>
+  <si>
+    <t>properties</t>
+  </si>
+  <si>
+    <t>Spreadsheet Float TotalAssetsFloat ()</t>
+  </si>
+  <si>
+    <t>= (BigDecimalValue) sum($GBP:$XSD)</t>
+  </si>
+  <si>
+    <t>XSD : BigDecimalValue</t>
+  </si>
+  <si>
+    <t>YBP : BigDecimalValue</t>
+  </si>
+  <si>
+    <t>KSD : BigDecimalValue</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>DBP : BigDecimalValue</t>
+  </si>
+  <si>
+    <t>FSD : BigDecimalValue</t>
+  </si>
+  <si>
+    <t>GBP : BigDecimalValue</t>
+  </si>
+  <si>
+    <t>Test TotalAssetsBigDecimalValue TotalAssetsBigDecimalValueTest</t>
+  </si>
+  <si>
+    <t>USD : BigDecimalValue</t>
+  </si>
+  <si>
+    <t>Spreadsheet BigDecimalValue TotalAssetsBigDecimalValue ()</t>
+  </si>
+  <si>
+    <t>= (BigDecimal) sum($USD:$YBP)</t>
+  </si>
+  <si>
+    <t>XSD : BigDecimal</t>
+  </si>
+  <si>
+    <t>YBP : BigDecimal</t>
+  </si>
+  <si>
+    <t>KSD : BigDecimal</t>
+  </si>
+  <si>
+    <t>DBP : BigDecimal</t>
+  </si>
+  <si>
+    <t>FSD : BigDecimal</t>
+  </si>
+  <si>
+    <t>GBP : BigDecimal</t>
+  </si>
+  <si>
+    <t>Test TotalAssetsBigDecimal TotalAssetsBigDecimalTest</t>
+  </si>
+  <si>
+    <t>USD : BigDecimal</t>
+  </si>
+  <si>
+    <t>Spreadsheet BigDecimal TotalAssetsBigDecimal ()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,8 +248,286 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,8 +539,159 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6DB66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -185,11 +770,2086 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFC000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="1882">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="26" borderId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0"/>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="5"/>
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="33" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="37" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="38" fillId="31" borderId="0"/>
+    <xf numFmtId="164" fontId="39" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="39" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="39" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="39" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="39" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="39" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="39" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="39" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="39" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -210,9 +2870,1916 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="1882">
+    <cellStyle name="20% - Accent1 10" xfId="3"/>
+    <cellStyle name="20% - Accent1 2" xfId="4"/>
+    <cellStyle name="20% - Accent1 3" xfId="5"/>
+    <cellStyle name="20% - Accent1 4" xfId="6"/>
+    <cellStyle name="20% - Accent1 5" xfId="7"/>
+    <cellStyle name="20% - Accent1 6" xfId="8"/>
+    <cellStyle name="20% - Accent1 7" xfId="9"/>
+    <cellStyle name="20% - Accent1 8" xfId="10"/>
+    <cellStyle name="20% - Accent1 9" xfId="11"/>
+    <cellStyle name="20% - Accent2 10" xfId="12"/>
+    <cellStyle name="20% - Accent2 2" xfId="13"/>
+    <cellStyle name="20% - Accent2 3" xfId="14"/>
+    <cellStyle name="20% - Accent2 4" xfId="15"/>
+    <cellStyle name="20% - Accent2 5" xfId="16"/>
+    <cellStyle name="20% - Accent2 6" xfId="17"/>
+    <cellStyle name="20% - Accent2 7" xfId="18"/>
+    <cellStyle name="20% - Accent2 8" xfId="19"/>
+    <cellStyle name="20% - Accent2 9" xfId="20"/>
+    <cellStyle name="20% - Accent3 10" xfId="21"/>
+    <cellStyle name="20% - Accent3 2" xfId="22"/>
+    <cellStyle name="20% - Accent3 3" xfId="23"/>
+    <cellStyle name="20% - Accent3 4" xfId="24"/>
+    <cellStyle name="20% - Accent3 5" xfId="25"/>
+    <cellStyle name="20% - Accent3 6" xfId="26"/>
+    <cellStyle name="20% - Accent3 7" xfId="27"/>
+    <cellStyle name="20% - Accent3 8" xfId="28"/>
+    <cellStyle name="20% - Accent3 9" xfId="29"/>
+    <cellStyle name="20% - Accent4 10" xfId="30"/>
+    <cellStyle name="20% - Accent4 2" xfId="31"/>
+    <cellStyle name="20% - Accent4 3" xfId="32"/>
+    <cellStyle name="20% - Accent4 4" xfId="33"/>
+    <cellStyle name="20% - Accent4 5" xfId="34"/>
+    <cellStyle name="20% - Accent4 6" xfId="35"/>
+    <cellStyle name="20% - Accent4 7" xfId="36"/>
+    <cellStyle name="20% - Accent4 8" xfId="37"/>
+    <cellStyle name="20% - Accent4 9" xfId="38"/>
+    <cellStyle name="20% - Accent5 10" xfId="39"/>
+    <cellStyle name="20% - Accent5 2" xfId="40"/>
+    <cellStyle name="20% - Accent5 3" xfId="41"/>
+    <cellStyle name="20% - Accent5 4" xfId="42"/>
+    <cellStyle name="20% - Accent5 5" xfId="43"/>
+    <cellStyle name="20% - Accent5 6" xfId="44"/>
+    <cellStyle name="20% - Accent5 7" xfId="45"/>
+    <cellStyle name="20% - Accent5 8" xfId="46"/>
+    <cellStyle name="20% - Accent5 9" xfId="47"/>
+    <cellStyle name="20% - Accent6 10" xfId="48"/>
+    <cellStyle name="20% - Accent6 2" xfId="49"/>
+    <cellStyle name="20% - Accent6 3" xfId="50"/>
+    <cellStyle name="20% - Accent6 4" xfId="51"/>
+    <cellStyle name="20% - Accent6 5" xfId="52"/>
+    <cellStyle name="20% - Accent6 6" xfId="53"/>
+    <cellStyle name="20% - Accent6 7" xfId="54"/>
+    <cellStyle name="20% - Accent6 8" xfId="55"/>
+    <cellStyle name="20% - Accent6 9" xfId="56"/>
+    <cellStyle name="40% - Accent1 10" xfId="57"/>
+    <cellStyle name="40% - Accent1 2" xfId="58"/>
+    <cellStyle name="40% - Accent1 3" xfId="59"/>
+    <cellStyle name="40% - Accent1 4" xfId="60"/>
+    <cellStyle name="40% - Accent1 5" xfId="61"/>
+    <cellStyle name="40% - Accent1 6" xfId="62"/>
+    <cellStyle name="40% - Accent1 7" xfId="63"/>
+    <cellStyle name="40% - Accent1 8" xfId="64"/>
+    <cellStyle name="40% - Accent1 9" xfId="65"/>
+    <cellStyle name="40% - Accent2 10" xfId="66"/>
+    <cellStyle name="40% - Accent2 2" xfId="67"/>
+    <cellStyle name="40% - Accent2 3" xfId="68"/>
+    <cellStyle name="40% - Accent2 4" xfId="69"/>
+    <cellStyle name="40% - Accent2 5" xfId="70"/>
+    <cellStyle name="40% - Accent2 6" xfId="71"/>
+    <cellStyle name="40% - Accent2 7" xfId="72"/>
+    <cellStyle name="40% - Accent2 8" xfId="73"/>
+    <cellStyle name="40% - Accent2 9" xfId="74"/>
+    <cellStyle name="40% - Accent3 10" xfId="75"/>
+    <cellStyle name="40% - Accent3 2" xfId="76"/>
+    <cellStyle name="40% - Accent3 3" xfId="77"/>
+    <cellStyle name="40% - Accent3 4" xfId="78"/>
+    <cellStyle name="40% - Accent3 5" xfId="79"/>
+    <cellStyle name="40% - Accent3 6" xfId="80"/>
+    <cellStyle name="40% - Accent3 7" xfId="81"/>
+    <cellStyle name="40% - Accent3 8" xfId="82"/>
+    <cellStyle name="40% - Accent3 9" xfId="83"/>
+    <cellStyle name="40% - Accent4 10" xfId="84"/>
+    <cellStyle name="40% - Accent4 2" xfId="85"/>
+    <cellStyle name="40% - Accent4 3" xfId="86"/>
+    <cellStyle name="40% - Accent4 4" xfId="87"/>
+    <cellStyle name="40% - Accent4 5" xfId="88"/>
+    <cellStyle name="40% - Accent4 6" xfId="89"/>
+    <cellStyle name="40% - Accent4 7" xfId="90"/>
+    <cellStyle name="40% - Accent4 8" xfId="91"/>
+    <cellStyle name="40% - Accent4 9" xfId="92"/>
+    <cellStyle name="40% - Accent5 10" xfId="93"/>
+    <cellStyle name="40% - Accent5 2" xfId="94"/>
+    <cellStyle name="40% - Accent5 3" xfId="95"/>
+    <cellStyle name="40% - Accent5 4" xfId="96"/>
+    <cellStyle name="40% - Accent5 5" xfId="97"/>
+    <cellStyle name="40% - Accent5 6" xfId="98"/>
+    <cellStyle name="40% - Accent5 7" xfId="99"/>
+    <cellStyle name="40% - Accent5 8" xfId="100"/>
+    <cellStyle name="40% - Accent5 9" xfId="101"/>
+    <cellStyle name="40% - Accent6 10" xfId="102"/>
+    <cellStyle name="40% - Accent6 2" xfId="103"/>
+    <cellStyle name="40% - Accent6 3" xfId="104"/>
+    <cellStyle name="40% - Accent6 4" xfId="105"/>
+    <cellStyle name="40% - Accent6 5" xfId="106"/>
+    <cellStyle name="40% - Accent6 6" xfId="107"/>
+    <cellStyle name="40% - Accent6 7" xfId="108"/>
+    <cellStyle name="40% - Accent6 8" xfId="109"/>
+    <cellStyle name="40% - Accent6 9" xfId="110"/>
+    <cellStyle name="60% - Accent1 10" xfId="111"/>
+    <cellStyle name="60% - Accent1 2" xfId="112"/>
+    <cellStyle name="60% - Accent1 3" xfId="113"/>
+    <cellStyle name="60% - Accent1 4" xfId="114"/>
+    <cellStyle name="60% - Accent1 5" xfId="115"/>
+    <cellStyle name="60% - Accent1 6" xfId="116"/>
+    <cellStyle name="60% - Accent1 7" xfId="117"/>
+    <cellStyle name="60% - Accent1 8" xfId="118"/>
+    <cellStyle name="60% - Accent1 9" xfId="119"/>
+    <cellStyle name="60% - Accent2 10" xfId="120"/>
+    <cellStyle name="60% - Accent2 2" xfId="121"/>
+    <cellStyle name="60% - Accent2 3" xfId="122"/>
+    <cellStyle name="60% - Accent2 4" xfId="123"/>
+    <cellStyle name="60% - Accent2 5" xfId="124"/>
+    <cellStyle name="60% - Accent2 6" xfId="125"/>
+    <cellStyle name="60% - Accent2 7" xfId="126"/>
+    <cellStyle name="60% - Accent2 8" xfId="127"/>
+    <cellStyle name="60% - Accent2 9" xfId="128"/>
+    <cellStyle name="60% - Accent3 10" xfId="129"/>
+    <cellStyle name="60% - Accent3 2" xfId="130"/>
+    <cellStyle name="60% - Accent3 3" xfId="131"/>
+    <cellStyle name="60% - Accent3 4" xfId="132"/>
+    <cellStyle name="60% - Accent3 5" xfId="133"/>
+    <cellStyle name="60% - Accent3 6" xfId="134"/>
+    <cellStyle name="60% - Accent3 7" xfId="135"/>
+    <cellStyle name="60% - Accent3 8" xfId="136"/>
+    <cellStyle name="60% - Accent3 9" xfId="137"/>
+    <cellStyle name="60% - Accent4 10" xfId="138"/>
+    <cellStyle name="60% - Accent4 2" xfId="139"/>
+    <cellStyle name="60% - Accent4 3" xfId="140"/>
+    <cellStyle name="60% - Accent4 4" xfId="141"/>
+    <cellStyle name="60% - Accent4 5" xfId="142"/>
+    <cellStyle name="60% - Accent4 6" xfId="143"/>
+    <cellStyle name="60% - Accent4 7" xfId="144"/>
+    <cellStyle name="60% - Accent4 8" xfId="145"/>
+    <cellStyle name="60% - Accent4 9" xfId="146"/>
+    <cellStyle name="60% - Accent5 10" xfId="147"/>
+    <cellStyle name="60% - Accent5 2" xfId="148"/>
+    <cellStyle name="60% - Accent5 3" xfId="149"/>
+    <cellStyle name="60% - Accent5 4" xfId="150"/>
+    <cellStyle name="60% - Accent5 5" xfId="151"/>
+    <cellStyle name="60% - Accent5 6" xfId="152"/>
+    <cellStyle name="60% - Accent5 7" xfId="153"/>
+    <cellStyle name="60% - Accent5 8" xfId="154"/>
+    <cellStyle name="60% - Accent5 9" xfId="155"/>
+    <cellStyle name="60% - Accent6 10" xfId="156"/>
+    <cellStyle name="60% - Accent6 2" xfId="157"/>
+    <cellStyle name="60% - Accent6 3" xfId="158"/>
+    <cellStyle name="60% - Accent6 4" xfId="159"/>
+    <cellStyle name="60% - Accent6 5" xfId="160"/>
+    <cellStyle name="60% - Accent6 6" xfId="161"/>
+    <cellStyle name="60% - Accent6 7" xfId="162"/>
+    <cellStyle name="60% - Accent6 8" xfId="163"/>
+    <cellStyle name="60% - Accent6 9" xfId="164"/>
+    <cellStyle name="Accent1 10" xfId="165"/>
+    <cellStyle name="Accent1 2" xfId="166"/>
+    <cellStyle name="Accent1 3" xfId="167"/>
+    <cellStyle name="Accent1 4" xfId="168"/>
+    <cellStyle name="Accent1 5" xfId="169"/>
+    <cellStyle name="Accent1 6" xfId="170"/>
+    <cellStyle name="Accent1 7" xfId="171"/>
+    <cellStyle name="Accent1 8" xfId="172"/>
+    <cellStyle name="Accent1 9" xfId="173"/>
+    <cellStyle name="Accent2 10" xfId="174"/>
+    <cellStyle name="Accent2 2" xfId="175"/>
+    <cellStyle name="Accent2 3" xfId="176"/>
+    <cellStyle name="Accent2 4" xfId="177"/>
+    <cellStyle name="Accent2 5" xfId="178"/>
+    <cellStyle name="Accent2 6" xfId="179"/>
+    <cellStyle name="Accent2 7" xfId="180"/>
+    <cellStyle name="Accent2 8" xfId="181"/>
+    <cellStyle name="Accent2 9" xfId="182"/>
+    <cellStyle name="Accent3 10" xfId="183"/>
+    <cellStyle name="Accent3 2" xfId="184"/>
+    <cellStyle name="Accent3 3" xfId="185"/>
+    <cellStyle name="Accent3 4" xfId="186"/>
+    <cellStyle name="Accent3 5" xfId="187"/>
+    <cellStyle name="Accent3 6" xfId="188"/>
+    <cellStyle name="Accent3 7" xfId="189"/>
+    <cellStyle name="Accent3 8" xfId="190"/>
+    <cellStyle name="Accent3 9" xfId="191"/>
+    <cellStyle name="Accent4 10" xfId="192"/>
+    <cellStyle name="Accent4 2" xfId="193"/>
+    <cellStyle name="Accent4 3" xfId="194"/>
+    <cellStyle name="Accent4 4" xfId="195"/>
+    <cellStyle name="Accent4 5" xfId="196"/>
+    <cellStyle name="Accent4 6" xfId="197"/>
+    <cellStyle name="Accent4 7" xfId="198"/>
+    <cellStyle name="Accent4 8" xfId="199"/>
+    <cellStyle name="Accent4 9" xfId="200"/>
+    <cellStyle name="Accent5 10" xfId="201"/>
+    <cellStyle name="Accent5 2" xfId="202"/>
+    <cellStyle name="Accent5 3" xfId="203"/>
+    <cellStyle name="Accent5 4" xfId="204"/>
+    <cellStyle name="Accent5 5" xfId="205"/>
+    <cellStyle name="Accent5 6" xfId="206"/>
+    <cellStyle name="Accent5 7" xfId="207"/>
+    <cellStyle name="Accent5 8" xfId="208"/>
+    <cellStyle name="Accent5 9" xfId="209"/>
+    <cellStyle name="Accent6 10" xfId="210"/>
+    <cellStyle name="Accent6 2" xfId="211"/>
+    <cellStyle name="Accent6 3" xfId="212"/>
+    <cellStyle name="Accent6 4" xfId="213"/>
+    <cellStyle name="Accent6 5" xfId="214"/>
+    <cellStyle name="Accent6 6" xfId="215"/>
+    <cellStyle name="Accent6 7" xfId="216"/>
+    <cellStyle name="Accent6 8" xfId="217"/>
+    <cellStyle name="Accent6 9" xfId="218"/>
+    <cellStyle name="AFE" xfId="219"/>
+    <cellStyle name="Bad 10" xfId="220"/>
+    <cellStyle name="Bad 2" xfId="221"/>
+    <cellStyle name="Bad 3" xfId="222"/>
+    <cellStyle name="Bad 4" xfId="223"/>
+    <cellStyle name="Bad 5" xfId="224"/>
+    <cellStyle name="Bad 6" xfId="225"/>
+    <cellStyle name="Bad 7" xfId="226"/>
+    <cellStyle name="Bad 8" xfId="227"/>
+    <cellStyle name="Bad 9" xfId="228"/>
+    <cellStyle name="Button" xfId="229"/>
+    <cellStyle name="Calculation 10" xfId="230"/>
+    <cellStyle name="Calculation 10 10" xfId="231"/>
+    <cellStyle name="Calculation 10 11" xfId="232"/>
+    <cellStyle name="Calculation 10 12" xfId="233"/>
+    <cellStyle name="Calculation 10 2" xfId="234"/>
+    <cellStyle name="Calculation 10 2 10" xfId="235"/>
+    <cellStyle name="Calculation 10 2 2" xfId="236"/>
+    <cellStyle name="Calculation 10 2 3" xfId="237"/>
+    <cellStyle name="Calculation 10 2 4" xfId="238"/>
+    <cellStyle name="Calculation 10 2 5" xfId="239"/>
+    <cellStyle name="Calculation 10 2 6" xfId="240"/>
+    <cellStyle name="Calculation 10 2 7" xfId="241"/>
+    <cellStyle name="Calculation 10 2 8" xfId="242"/>
+    <cellStyle name="Calculation 10 2 9" xfId="243"/>
+    <cellStyle name="Calculation 10 3" xfId="244"/>
+    <cellStyle name="Calculation 10 3 10" xfId="245"/>
+    <cellStyle name="Calculation 10 3 2" xfId="246"/>
+    <cellStyle name="Calculation 10 3 3" xfId="247"/>
+    <cellStyle name="Calculation 10 3 4" xfId="248"/>
+    <cellStyle name="Calculation 10 3 5" xfId="249"/>
+    <cellStyle name="Calculation 10 3 6" xfId="250"/>
+    <cellStyle name="Calculation 10 3 7" xfId="251"/>
+    <cellStyle name="Calculation 10 3 8" xfId="252"/>
+    <cellStyle name="Calculation 10 3 9" xfId="253"/>
+    <cellStyle name="Calculation 10 4" xfId="254"/>
+    <cellStyle name="Calculation 10 5" xfId="255"/>
+    <cellStyle name="Calculation 10 6" xfId="256"/>
+    <cellStyle name="Calculation 10 7" xfId="257"/>
+    <cellStyle name="Calculation 10 8" xfId="258"/>
+    <cellStyle name="Calculation 10 9" xfId="259"/>
+    <cellStyle name="Calculation 11" xfId="260"/>
+    <cellStyle name="Calculation 2" xfId="261"/>
+    <cellStyle name="Calculation 2 10" xfId="262"/>
+    <cellStyle name="Calculation 2 11" xfId="263"/>
+    <cellStyle name="Calculation 2 12" xfId="264"/>
+    <cellStyle name="Calculation 2 2" xfId="265"/>
+    <cellStyle name="Calculation 2 2 10" xfId="266"/>
+    <cellStyle name="Calculation 2 2 2" xfId="267"/>
+    <cellStyle name="Calculation 2 2 3" xfId="268"/>
+    <cellStyle name="Calculation 2 2 4" xfId="269"/>
+    <cellStyle name="Calculation 2 2 5" xfId="270"/>
+    <cellStyle name="Calculation 2 2 6" xfId="271"/>
+    <cellStyle name="Calculation 2 2 7" xfId="272"/>
+    <cellStyle name="Calculation 2 2 8" xfId="273"/>
+    <cellStyle name="Calculation 2 2 9" xfId="274"/>
+    <cellStyle name="Calculation 2 3" xfId="275"/>
+    <cellStyle name="Calculation 2 3 10" xfId="276"/>
+    <cellStyle name="Calculation 2 3 2" xfId="277"/>
+    <cellStyle name="Calculation 2 3 3" xfId="278"/>
+    <cellStyle name="Calculation 2 3 4" xfId="279"/>
+    <cellStyle name="Calculation 2 3 5" xfId="280"/>
+    <cellStyle name="Calculation 2 3 6" xfId="281"/>
+    <cellStyle name="Calculation 2 3 7" xfId="282"/>
+    <cellStyle name="Calculation 2 3 8" xfId="283"/>
+    <cellStyle name="Calculation 2 3 9" xfId="284"/>
+    <cellStyle name="Calculation 2 4" xfId="285"/>
+    <cellStyle name="Calculation 2 5" xfId="286"/>
+    <cellStyle name="Calculation 2 6" xfId="287"/>
+    <cellStyle name="Calculation 2 7" xfId="288"/>
+    <cellStyle name="Calculation 2 8" xfId="289"/>
+    <cellStyle name="Calculation 2 9" xfId="290"/>
+    <cellStyle name="Calculation 3" xfId="291"/>
+    <cellStyle name="Calculation 3 10" xfId="292"/>
+    <cellStyle name="Calculation 3 11" xfId="293"/>
+    <cellStyle name="Calculation 3 12" xfId="294"/>
+    <cellStyle name="Calculation 3 2" xfId="295"/>
+    <cellStyle name="Calculation 3 2 10" xfId="296"/>
+    <cellStyle name="Calculation 3 2 2" xfId="297"/>
+    <cellStyle name="Calculation 3 2 3" xfId="298"/>
+    <cellStyle name="Calculation 3 2 4" xfId="299"/>
+    <cellStyle name="Calculation 3 2 5" xfId="300"/>
+    <cellStyle name="Calculation 3 2 6" xfId="301"/>
+    <cellStyle name="Calculation 3 2 7" xfId="302"/>
+    <cellStyle name="Calculation 3 2 8" xfId="303"/>
+    <cellStyle name="Calculation 3 2 9" xfId="304"/>
+    <cellStyle name="Calculation 3 3" xfId="305"/>
+    <cellStyle name="Calculation 3 3 10" xfId="306"/>
+    <cellStyle name="Calculation 3 3 2" xfId="307"/>
+    <cellStyle name="Calculation 3 3 3" xfId="308"/>
+    <cellStyle name="Calculation 3 3 4" xfId="309"/>
+    <cellStyle name="Calculation 3 3 5" xfId="310"/>
+    <cellStyle name="Calculation 3 3 6" xfId="311"/>
+    <cellStyle name="Calculation 3 3 7" xfId="312"/>
+    <cellStyle name="Calculation 3 3 8" xfId="313"/>
+    <cellStyle name="Calculation 3 3 9" xfId="314"/>
+    <cellStyle name="Calculation 3 4" xfId="315"/>
+    <cellStyle name="Calculation 3 5" xfId="316"/>
+    <cellStyle name="Calculation 3 6" xfId="317"/>
+    <cellStyle name="Calculation 3 7" xfId="318"/>
+    <cellStyle name="Calculation 3 8" xfId="319"/>
+    <cellStyle name="Calculation 3 9" xfId="320"/>
+    <cellStyle name="Calculation 4" xfId="321"/>
+    <cellStyle name="Calculation 4 10" xfId="322"/>
+    <cellStyle name="Calculation 4 11" xfId="323"/>
+    <cellStyle name="Calculation 4 12" xfId="324"/>
+    <cellStyle name="Calculation 4 2" xfId="325"/>
+    <cellStyle name="Calculation 4 2 10" xfId="326"/>
+    <cellStyle name="Calculation 4 2 2" xfId="327"/>
+    <cellStyle name="Calculation 4 2 3" xfId="328"/>
+    <cellStyle name="Calculation 4 2 4" xfId="329"/>
+    <cellStyle name="Calculation 4 2 5" xfId="330"/>
+    <cellStyle name="Calculation 4 2 6" xfId="331"/>
+    <cellStyle name="Calculation 4 2 7" xfId="332"/>
+    <cellStyle name="Calculation 4 2 8" xfId="333"/>
+    <cellStyle name="Calculation 4 2 9" xfId="334"/>
+    <cellStyle name="Calculation 4 3" xfId="335"/>
+    <cellStyle name="Calculation 4 3 10" xfId="336"/>
+    <cellStyle name="Calculation 4 3 2" xfId="337"/>
+    <cellStyle name="Calculation 4 3 3" xfId="338"/>
+    <cellStyle name="Calculation 4 3 4" xfId="339"/>
+    <cellStyle name="Calculation 4 3 5" xfId="340"/>
+    <cellStyle name="Calculation 4 3 6" xfId="341"/>
+    <cellStyle name="Calculation 4 3 7" xfId="342"/>
+    <cellStyle name="Calculation 4 3 8" xfId="343"/>
+    <cellStyle name="Calculation 4 3 9" xfId="344"/>
+    <cellStyle name="Calculation 4 4" xfId="345"/>
+    <cellStyle name="Calculation 4 5" xfId="346"/>
+    <cellStyle name="Calculation 4 6" xfId="347"/>
+    <cellStyle name="Calculation 4 7" xfId="348"/>
+    <cellStyle name="Calculation 4 8" xfId="349"/>
+    <cellStyle name="Calculation 4 9" xfId="350"/>
+    <cellStyle name="Calculation 5" xfId="351"/>
+    <cellStyle name="Calculation 5 10" xfId="352"/>
+    <cellStyle name="Calculation 5 11" xfId="353"/>
+    <cellStyle name="Calculation 5 12" xfId="354"/>
+    <cellStyle name="Calculation 5 2" xfId="355"/>
+    <cellStyle name="Calculation 5 2 10" xfId="356"/>
+    <cellStyle name="Calculation 5 2 2" xfId="357"/>
+    <cellStyle name="Calculation 5 2 3" xfId="358"/>
+    <cellStyle name="Calculation 5 2 4" xfId="359"/>
+    <cellStyle name="Calculation 5 2 5" xfId="360"/>
+    <cellStyle name="Calculation 5 2 6" xfId="361"/>
+    <cellStyle name="Calculation 5 2 7" xfId="362"/>
+    <cellStyle name="Calculation 5 2 8" xfId="363"/>
+    <cellStyle name="Calculation 5 2 9" xfId="364"/>
+    <cellStyle name="Calculation 5 3" xfId="365"/>
+    <cellStyle name="Calculation 5 3 10" xfId="366"/>
+    <cellStyle name="Calculation 5 3 2" xfId="367"/>
+    <cellStyle name="Calculation 5 3 3" xfId="368"/>
+    <cellStyle name="Calculation 5 3 4" xfId="369"/>
+    <cellStyle name="Calculation 5 3 5" xfId="370"/>
+    <cellStyle name="Calculation 5 3 6" xfId="371"/>
+    <cellStyle name="Calculation 5 3 7" xfId="372"/>
+    <cellStyle name="Calculation 5 3 8" xfId="373"/>
+    <cellStyle name="Calculation 5 3 9" xfId="374"/>
+    <cellStyle name="Calculation 5 4" xfId="375"/>
+    <cellStyle name="Calculation 5 5" xfId="376"/>
+    <cellStyle name="Calculation 5 6" xfId="377"/>
+    <cellStyle name="Calculation 5 7" xfId="378"/>
+    <cellStyle name="Calculation 5 8" xfId="379"/>
+    <cellStyle name="Calculation 5 9" xfId="380"/>
+    <cellStyle name="Calculation 6" xfId="381"/>
+    <cellStyle name="Calculation 6 10" xfId="382"/>
+    <cellStyle name="Calculation 6 11" xfId="383"/>
+    <cellStyle name="Calculation 6 12" xfId="384"/>
+    <cellStyle name="Calculation 6 2" xfId="385"/>
+    <cellStyle name="Calculation 6 2 10" xfId="386"/>
+    <cellStyle name="Calculation 6 2 2" xfId="387"/>
+    <cellStyle name="Calculation 6 2 3" xfId="388"/>
+    <cellStyle name="Calculation 6 2 4" xfId="389"/>
+    <cellStyle name="Calculation 6 2 5" xfId="390"/>
+    <cellStyle name="Calculation 6 2 6" xfId="391"/>
+    <cellStyle name="Calculation 6 2 7" xfId="392"/>
+    <cellStyle name="Calculation 6 2 8" xfId="393"/>
+    <cellStyle name="Calculation 6 2 9" xfId="394"/>
+    <cellStyle name="Calculation 6 3" xfId="395"/>
+    <cellStyle name="Calculation 6 3 10" xfId="396"/>
+    <cellStyle name="Calculation 6 3 2" xfId="397"/>
+    <cellStyle name="Calculation 6 3 3" xfId="398"/>
+    <cellStyle name="Calculation 6 3 4" xfId="399"/>
+    <cellStyle name="Calculation 6 3 5" xfId="400"/>
+    <cellStyle name="Calculation 6 3 6" xfId="401"/>
+    <cellStyle name="Calculation 6 3 7" xfId="402"/>
+    <cellStyle name="Calculation 6 3 8" xfId="403"/>
+    <cellStyle name="Calculation 6 3 9" xfId="404"/>
+    <cellStyle name="Calculation 6 4" xfId="405"/>
+    <cellStyle name="Calculation 6 5" xfId="406"/>
+    <cellStyle name="Calculation 6 6" xfId="407"/>
+    <cellStyle name="Calculation 6 7" xfId="408"/>
+    <cellStyle name="Calculation 6 8" xfId="409"/>
+    <cellStyle name="Calculation 6 9" xfId="410"/>
+    <cellStyle name="Calculation 7" xfId="411"/>
+    <cellStyle name="Calculation 7 10" xfId="412"/>
+    <cellStyle name="Calculation 7 11" xfId="413"/>
+    <cellStyle name="Calculation 7 12" xfId="414"/>
+    <cellStyle name="Calculation 7 2" xfId="415"/>
+    <cellStyle name="Calculation 7 2 10" xfId="416"/>
+    <cellStyle name="Calculation 7 2 2" xfId="417"/>
+    <cellStyle name="Calculation 7 2 3" xfId="418"/>
+    <cellStyle name="Calculation 7 2 4" xfId="419"/>
+    <cellStyle name="Calculation 7 2 5" xfId="420"/>
+    <cellStyle name="Calculation 7 2 6" xfId="421"/>
+    <cellStyle name="Calculation 7 2 7" xfId="422"/>
+    <cellStyle name="Calculation 7 2 8" xfId="423"/>
+    <cellStyle name="Calculation 7 2 9" xfId="424"/>
+    <cellStyle name="Calculation 7 3" xfId="425"/>
+    <cellStyle name="Calculation 7 3 10" xfId="426"/>
+    <cellStyle name="Calculation 7 3 2" xfId="427"/>
+    <cellStyle name="Calculation 7 3 3" xfId="428"/>
+    <cellStyle name="Calculation 7 3 4" xfId="429"/>
+    <cellStyle name="Calculation 7 3 5" xfId="430"/>
+    <cellStyle name="Calculation 7 3 6" xfId="431"/>
+    <cellStyle name="Calculation 7 3 7" xfId="432"/>
+    <cellStyle name="Calculation 7 3 8" xfId="433"/>
+    <cellStyle name="Calculation 7 3 9" xfId="434"/>
+    <cellStyle name="Calculation 7 4" xfId="435"/>
+    <cellStyle name="Calculation 7 5" xfId="436"/>
+    <cellStyle name="Calculation 7 6" xfId="437"/>
+    <cellStyle name="Calculation 7 7" xfId="438"/>
+    <cellStyle name="Calculation 7 8" xfId="439"/>
+    <cellStyle name="Calculation 7 9" xfId="440"/>
+    <cellStyle name="Calculation 8" xfId="441"/>
+    <cellStyle name="Calculation 8 10" xfId="442"/>
+    <cellStyle name="Calculation 8 11" xfId="443"/>
+    <cellStyle name="Calculation 8 12" xfId="444"/>
+    <cellStyle name="Calculation 8 2" xfId="445"/>
+    <cellStyle name="Calculation 8 2 10" xfId="446"/>
+    <cellStyle name="Calculation 8 2 2" xfId="447"/>
+    <cellStyle name="Calculation 8 2 3" xfId="448"/>
+    <cellStyle name="Calculation 8 2 4" xfId="449"/>
+    <cellStyle name="Calculation 8 2 5" xfId="450"/>
+    <cellStyle name="Calculation 8 2 6" xfId="451"/>
+    <cellStyle name="Calculation 8 2 7" xfId="452"/>
+    <cellStyle name="Calculation 8 2 8" xfId="453"/>
+    <cellStyle name="Calculation 8 2 9" xfId="454"/>
+    <cellStyle name="Calculation 8 3" xfId="455"/>
+    <cellStyle name="Calculation 8 3 10" xfId="456"/>
+    <cellStyle name="Calculation 8 3 2" xfId="457"/>
+    <cellStyle name="Calculation 8 3 3" xfId="458"/>
+    <cellStyle name="Calculation 8 3 4" xfId="459"/>
+    <cellStyle name="Calculation 8 3 5" xfId="460"/>
+    <cellStyle name="Calculation 8 3 6" xfId="461"/>
+    <cellStyle name="Calculation 8 3 7" xfId="462"/>
+    <cellStyle name="Calculation 8 3 8" xfId="463"/>
+    <cellStyle name="Calculation 8 3 9" xfId="464"/>
+    <cellStyle name="Calculation 8 4" xfId="465"/>
+    <cellStyle name="Calculation 8 5" xfId="466"/>
+    <cellStyle name="Calculation 8 6" xfId="467"/>
+    <cellStyle name="Calculation 8 7" xfId="468"/>
+    <cellStyle name="Calculation 8 8" xfId="469"/>
+    <cellStyle name="Calculation 8 9" xfId="470"/>
+    <cellStyle name="Calculation 9" xfId="471"/>
+    <cellStyle name="Calculation 9 10" xfId="472"/>
+    <cellStyle name="Calculation 9 11" xfId="473"/>
+    <cellStyle name="Calculation 9 12" xfId="474"/>
+    <cellStyle name="Calculation 9 2" xfId="475"/>
+    <cellStyle name="Calculation 9 2 10" xfId="476"/>
+    <cellStyle name="Calculation 9 2 2" xfId="477"/>
+    <cellStyle name="Calculation 9 2 3" xfId="478"/>
+    <cellStyle name="Calculation 9 2 4" xfId="479"/>
+    <cellStyle name="Calculation 9 2 5" xfId="480"/>
+    <cellStyle name="Calculation 9 2 6" xfId="481"/>
+    <cellStyle name="Calculation 9 2 7" xfId="482"/>
+    <cellStyle name="Calculation 9 2 8" xfId="483"/>
+    <cellStyle name="Calculation 9 2 9" xfId="484"/>
+    <cellStyle name="Calculation 9 3" xfId="485"/>
+    <cellStyle name="Calculation 9 3 10" xfId="486"/>
+    <cellStyle name="Calculation 9 3 2" xfId="487"/>
+    <cellStyle name="Calculation 9 3 3" xfId="488"/>
+    <cellStyle name="Calculation 9 3 4" xfId="489"/>
+    <cellStyle name="Calculation 9 3 5" xfId="490"/>
+    <cellStyle name="Calculation 9 3 6" xfId="491"/>
+    <cellStyle name="Calculation 9 3 7" xfId="492"/>
+    <cellStyle name="Calculation 9 3 8" xfId="493"/>
+    <cellStyle name="Calculation 9 3 9" xfId="494"/>
+    <cellStyle name="Calculation 9 4" xfId="495"/>
+    <cellStyle name="Calculation 9 5" xfId="496"/>
+    <cellStyle name="Calculation 9 6" xfId="497"/>
+    <cellStyle name="Calculation 9 7" xfId="498"/>
+    <cellStyle name="Calculation 9 8" xfId="499"/>
+    <cellStyle name="Calculation 9 9" xfId="500"/>
+    <cellStyle name="Check Cell 10" xfId="501"/>
+    <cellStyle name="Check Cell 2" xfId="502"/>
+    <cellStyle name="Check Cell 3" xfId="503"/>
+    <cellStyle name="Check Cell 4" xfId="504"/>
+    <cellStyle name="Check Cell 5" xfId="505"/>
+    <cellStyle name="Check Cell 6" xfId="506"/>
+    <cellStyle name="Check Cell 7" xfId="507"/>
+    <cellStyle name="Check Cell 8" xfId="508"/>
+    <cellStyle name="Check Cell 9" xfId="509"/>
+    <cellStyle name="Column Heading" xfId="510"/>
+    <cellStyle name="Comma 2" xfId="511"/>
+    <cellStyle name="Component Header" xfId="512"/>
+    <cellStyle name="Component Heading" xfId="513"/>
+    <cellStyle name="Currency 2" xfId="514"/>
+    <cellStyle name="Explanatory Text 10" xfId="515"/>
+    <cellStyle name="Explanatory Text 2" xfId="516"/>
+    <cellStyle name="Explanatory Text 3" xfId="517"/>
+    <cellStyle name="Explanatory Text 4" xfId="518"/>
+    <cellStyle name="Explanatory Text 5" xfId="519"/>
+    <cellStyle name="Explanatory Text 6" xfId="520"/>
+    <cellStyle name="Explanatory Text 7" xfId="521"/>
+    <cellStyle name="Explanatory Text 8" xfId="522"/>
+    <cellStyle name="Explanatory Text 9" xfId="523"/>
+    <cellStyle name="First attribute link" xfId="524"/>
+    <cellStyle name="Good 10" xfId="525"/>
+    <cellStyle name="Good 2" xfId="526"/>
+    <cellStyle name="Good 3" xfId="527"/>
+    <cellStyle name="Good 4" xfId="528"/>
+    <cellStyle name="Good 5" xfId="529"/>
+    <cellStyle name="Good 6" xfId="530"/>
+    <cellStyle name="Good 7" xfId="531"/>
+    <cellStyle name="Good 8" xfId="532"/>
+    <cellStyle name="Good 9" xfId="533"/>
+    <cellStyle name="Heading 1 10" xfId="534"/>
+    <cellStyle name="Heading 1 2" xfId="535"/>
+    <cellStyle name="Heading 1 3" xfId="536"/>
+    <cellStyle name="Heading 1 4" xfId="537"/>
+    <cellStyle name="Heading 1 5" xfId="538"/>
+    <cellStyle name="Heading 1 6" xfId="539"/>
+    <cellStyle name="Heading 1 7" xfId="540"/>
+    <cellStyle name="Heading 1 8" xfId="541"/>
+    <cellStyle name="Heading 1 9" xfId="542"/>
+    <cellStyle name="Heading 2 10" xfId="543"/>
+    <cellStyle name="Heading 2 11" xfId="544"/>
+    <cellStyle name="Heading 2 2" xfId="545"/>
+    <cellStyle name="Heading 2 2 2" xfId="546"/>
+    <cellStyle name="Heading 2 2 3" xfId="547"/>
+    <cellStyle name="Heading 2 3" xfId="548"/>
+    <cellStyle name="Heading 2 4" xfId="549"/>
+    <cellStyle name="Heading 2 5" xfId="550"/>
+    <cellStyle name="Heading 2 6" xfId="551"/>
+    <cellStyle name="Heading 2 7" xfId="552"/>
+    <cellStyle name="Heading 2 8" xfId="553"/>
+    <cellStyle name="Heading 2 9" xfId="554"/>
+    <cellStyle name="Heading 3 10" xfId="555"/>
+    <cellStyle name="Heading 3 11" xfId="556"/>
+    <cellStyle name="Heading 3 11 2" xfId="557"/>
+    <cellStyle name="Heading 3 2" xfId="558"/>
+    <cellStyle name="Heading 3 3" xfId="559"/>
+    <cellStyle name="Heading 3 4" xfId="560"/>
+    <cellStyle name="Heading 3 5" xfId="561"/>
+    <cellStyle name="Heading 3 6" xfId="562"/>
+    <cellStyle name="Heading 3 7" xfId="563"/>
+    <cellStyle name="Heading 3 8" xfId="564"/>
+    <cellStyle name="Heading 3 9" xfId="565"/>
+    <cellStyle name="Heading 4 10" xfId="566"/>
+    <cellStyle name="Heading 4 2" xfId="567"/>
+    <cellStyle name="Heading 4 3" xfId="568"/>
+    <cellStyle name="Heading 4 4" xfId="569"/>
+    <cellStyle name="Heading 4 5" xfId="570"/>
+    <cellStyle name="Heading 4 6" xfId="571"/>
+    <cellStyle name="Heading 4 7" xfId="572"/>
+    <cellStyle name="Heading 4 8" xfId="573"/>
+    <cellStyle name="Heading 4 9" xfId="574"/>
+    <cellStyle name="headings" xfId="575"/>
+    <cellStyle name="Hyperlink 2" xfId="576"/>
+    <cellStyle name="Hyperlink 2 2" xfId="577"/>
+    <cellStyle name="Hyperlink 2 3" xfId="578"/>
+    <cellStyle name="Hyperlink 3" xfId="579"/>
+    <cellStyle name="Hyperlink 3 2" xfId="580"/>
+    <cellStyle name="Input 10" xfId="581"/>
+    <cellStyle name="Input 10 10" xfId="582"/>
+    <cellStyle name="Input 10 11" xfId="583"/>
+    <cellStyle name="Input 10 12" xfId="584"/>
+    <cellStyle name="Input 10 2" xfId="585"/>
+    <cellStyle name="Input 10 2 10" xfId="586"/>
+    <cellStyle name="Input 10 2 2" xfId="587"/>
+    <cellStyle name="Input 10 2 3" xfId="588"/>
+    <cellStyle name="Input 10 2 4" xfId="589"/>
+    <cellStyle name="Input 10 2 5" xfId="590"/>
+    <cellStyle name="Input 10 2 6" xfId="591"/>
+    <cellStyle name="Input 10 2 7" xfId="592"/>
+    <cellStyle name="Input 10 2 8" xfId="593"/>
+    <cellStyle name="Input 10 2 9" xfId="594"/>
+    <cellStyle name="Input 10 3" xfId="595"/>
+    <cellStyle name="Input 10 3 10" xfId="596"/>
+    <cellStyle name="Input 10 3 2" xfId="597"/>
+    <cellStyle name="Input 10 3 3" xfId="598"/>
+    <cellStyle name="Input 10 3 4" xfId="599"/>
+    <cellStyle name="Input 10 3 5" xfId="600"/>
+    <cellStyle name="Input 10 3 6" xfId="601"/>
+    <cellStyle name="Input 10 3 7" xfId="602"/>
+    <cellStyle name="Input 10 3 8" xfId="603"/>
+    <cellStyle name="Input 10 3 9" xfId="604"/>
+    <cellStyle name="Input 10 4" xfId="605"/>
+    <cellStyle name="Input 10 5" xfId="606"/>
+    <cellStyle name="Input 10 6" xfId="607"/>
+    <cellStyle name="Input 10 7" xfId="608"/>
+    <cellStyle name="Input 10 8" xfId="609"/>
+    <cellStyle name="Input 10 9" xfId="610"/>
+    <cellStyle name="Input 2" xfId="611"/>
+    <cellStyle name="Input 2 10" xfId="612"/>
+    <cellStyle name="Input 2 11" xfId="613"/>
+    <cellStyle name="Input 2 12" xfId="614"/>
+    <cellStyle name="Input 2 2" xfId="615"/>
+    <cellStyle name="Input 2 2 10" xfId="616"/>
+    <cellStyle name="Input 2 2 2" xfId="617"/>
+    <cellStyle name="Input 2 2 3" xfId="618"/>
+    <cellStyle name="Input 2 2 4" xfId="619"/>
+    <cellStyle name="Input 2 2 5" xfId="620"/>
+    <cellStyle name="Input 2 2 6" xfId="621"/>
+    <cellStyle name="Input 2 2 7" xfId="622"/>
+    <cellStyle name="Input 2 2 8" xfId="623"/>
+    <cellStyle name="Input 2 2 9" xfId="624"/>
+    <cellStyle name="Input 2 3" xfId="625"/>
+    <cellStyle name="Input 2 3 10" xfId="626"/>
+    <cellStyle name="Input 2 3 2" xfId="627"/>
+    <cellStyle name="Input 2 3 3" xfId="628"/>
+    <cellStyle name="Input 2 3 4" xfId="629"/>
+    <cellStyle name="Input 2 3 5" xfId="630"/>
+    <cellStyle name="Input 2 3 6" xfId="631"/>
+    <cellStyle name="Input 2 3 7" xfId="632"/>
+    <cellStyle name="Input 2 3 8" xfId="633"/>
+    <cellStyle name="Input 2 3 9" xfId="634"/>
+    <cellStyle name="Input 2 4" xfId="635"/>
+    <cellStyle name="Input 2 5" xfId="636"/>
+    <cellStyle name="Input 2 6" xfId="637"/>
+    <cellStyle name="Input 2 7" xfId="638"/>
+    <cellStyle name="Input 2 8" xfId="639"/>
+    <cellStyle name="Input 2 9" xfId="640"/>
+    <cellStyle name="Input 3" xfId="641"/>
+    <cellStyle name="Input 3 10" xfId="642"/>
+    <cellStyle name="Input 3 11" xfId="643"/>
+    <cellStyle name="Input 3 12" xfId="644"/>
+    <cellStyle name="Input 3 2" xfId="645"/>
+    <cellStyle name="Input 3 2 10" xfId="646"/>
+    <cellStyle name="Input 3 2 2" xfId="647"/>
+    <cellStyle name="Input 3 2 3" xfId="648"/>
+    <cellStyle name="Input 3 2 4" xfId="649"/>
+    <cellStyle name="Input 3 2 5" xfId="650"/>
+    <cellStyle name="Input 3 2 6" xfId="651"/>
+    <cellStyle name="Input 3 2 7" xfId="652"/>
+    <cellStyle name="Input 3 2 8" xfId="653"/>
+    <cellStyle name="Input 3 2 9" xfId="654"/>
+    <cellStyle name="Input 3 3" xfId="655"/>
+    <cellStyle name="Input 3 3 10" xfId="656"/>
+    <cellStyle name="Input 3 3 2" xfId="657"/>
+    <cellStyle name="Input 3 3 3" xfId="658"/>
+    <cellStyle name="Input 3 3 4" xfId="659"/>
+    <cellStyle name="Input 3 3 5" xfId="660"/>
+    <cellStyle name="Input 3 3 6" xfId="661"/>
+    <cellStyle name="Input 3 3 7" xfId="662"/>
+    <cellStyle name="Input 3 3 8" xfId="663"/>
+    <cellStyle name="Input 3 3 9" xfId="664"/>
+    <cellStyle name="Input 3 4" xfId="665"/>
+    <cellStyle name="Input 3 5" xfId="666"/>
+    <cellStyle name="Input 3 6" xfId="667"/>
+    <cellStyle name="Input 3 7" xfId="668"/>
+    <cellStyle name="Input 3 8" xfId="669"/>
+    <cellStyle name="Input 3 9" xfId="670"/>
+    <cellStyle name="Input 4" xfId="671"/>
+    <cellStyle name="Input 4 10" xfId="672"/>
+    <cellStyle name="Input 4 11" xfId="673"/>
+    <cellStyle name="Input 4 12" xfId="674"/>
+    <cellStyle name="Input 4 2" xfId="675"/>
+    <cellStyle name="Input 4 2 10" xfId="676"/>
+    <cellStyle name="Input 4 2 2" xfId="677"/>
+    <cellStyle name="Input 4 2 3" xfId="678"/>
+    <cellStyle name="Input 4 2 4" xfId="679"/>
+    <cellStyle name="Input 4 2 5" xfId="680"/>
+    <cellStyle name="Input 4 2 6" xfId="681"/>
+    <cellStyle name="Input 4 2 7" xfId="682"/>
+    <cellStyle name="Input 4 2 8" xfId="683"/>
+    <cellStyle name="Input 4 2 9" xfId="684"/>
+    <cellStyle name="Input 4 3" xfId="685"/>
+    <cellStyle name="Input 4 3 10" xfId="686"/>
+    <cellStyle name="Input 4 3 2" xfId="687"/>
+    <cellStyle name="Input 4 3 3" xfId="688"/>
+    <cellStyle name="Input 4 3 4" xfId="689"/>
+    <cellStyle name="Input 4 3 5" xfId="690"/>
+    <cellStyle name="Input 4 3 6" xfId="691"/>
+    <cellStyle name="Input 4 3 7" xfId="692"/>
+    <cellStyle name="Input 4 3 8" xfId="693"/>
+    <cellStyle name="Input 4 3 9" xfId="694"/>
+    <cellStyle name="Input 4 4" xfId="695"/>
+    <cellStyle name="Input 4 5" xfId="696"/>
+    <cellStyle name="Input 4 6" xfId="697"/>
+    <cellStyle name="Input 4 7" xfId="698"/>
+    <cellStyle name="Input 4 8" xfId="699"/>
+    <cellStyle name="Input 4 9" xfId="700"/>
+    <cellStyle name="Input 5" xfId="701"/>
+    <cellStyle name="Input 5 10" xfId="702"/>
+    <cellStyle name="Input 5 11" xfId="703"/>
+    <cellStyle name="Input 5 12" xfId="704"/>
+    <cellStyle name="Input 5 2" xfId="705"/>
+    <cellStyle name="Input 5 2 10" xfId="706"/>
+    <cellStyle name="Input 5 2 2" xfId="707"/>
+    <cellStyle name="Input 5 2 3" xfId="708"/>
+    <cellStyle name="Input 5 2 4" xfId="709"/>
+    <cellStyle name="Input 5 2 5" xfId="710"/>
+    <cellStyle name="Input 5 2 6" xfId="711"/>
+    <cellStyle name="Input 5 2 7" xfId="712"/>
+    <cellStyle name="Input 5 2 8" xfId="713"/>
+    <cellStyle name="Input 5 2 9" xfId="714"/>
+    <cellStyle name="Input 5 3" xfId="715"/>
+    <cellStyle name="Input 5 3 10" xfId="716"/>
+    <cellStyle name="Input 5 3 2" xfId="717"/>
+    <cellStyle name="Input 5 3 3" xfId="718"/>
+    <cellStyle name="Input 5 3 4" xfId="719"/>
+    <cellStyle name="Input 5 3 5" xfId="720"/>
+    <cellStyle name="Input 5 3 6" xfId="721"/>
+    <cellStyle name="Input 5 3 7" xfId="722"/>
+    <cellStyle name="Input 5 3 8" xfId="723"/>
+    <cellStyle name="Input 5 3 9" xfId="724"/>
+    <cellStyle name="Input 5 4" xfId="725"/>
+    <cellStyle name="Input 5 5" xfId="726"/>
+    <cellStyle name="Input 5 6" xfId="727"/>
+    <cellStyle name="Input 5 7" xfId="728"/>
+    <cellStyle name="Input 5 8" xfId="729"/>
+    <cellStyle name="Input 5 9" xfId="730"/>
+    <cellStyle name="Input 6" xfId="731"/>
+    <cellStyle name="Input 6 10" xfId="732"/>
+    <cellStyle name="Input 6 11" xfId="733"/>
+    <cellStyle name="Input 6 12" xfId="734"/>
+    <cellStyle name="Input 6 2" xfId="735"/>
+    <cellStyle name="Input 6 2 10" xfId="736"/>
+    <cellStyle name="Input 6 2 2" xfId="737"/>
+    <cellStyle name="Input 6 2 3" xfId="738"/>
+    <cellStyle name="Input 6 2 4" xfId="739"/>
+    <cellStyle name="Input 6 2 5" xfId="740"/>
+    <cellStyle name="Input 6 2 6" xfId="741"/>
+    <cellStyle name="Input 6 2 7" xfId="742"/>
+    <cellStyle name="Input 6 2 8" xfId="743"/>
+    <cellStyle name="Input 6 2 9" xfId="744"/>
+    <cellStyle name="Input 6 3" xfId="745"/>
+    <cellStyle name="Input 6 3 10" xfId="746"/>
+    <cellStyle name="Input 6 3 2" xfId="747"/>
+    <cellStyle name="Input 6 3 3" xfId="748"/>
+    <cellStyle name="Input 6 3 4" xfId="749"/>
+    <cellStyle name="Input 6 3 5" xfId="750"/>
+    <cellStyle name="Input 6 3 6" xfId="751"/>
+    <cellStyle name="Input 6 3 7" xfId="752"/>
+    <cellStyle name="Input 6 3 8" xfId="753"/>
+    <cellStyle name="Input 6 3 9" xfId="754"/>
+    <cellStyle name="Input 6 4" xfId="755"/>
+    <cellStyle name="Input 6 5" xfId="756"/>
+    <cellStyle name="Input 6 6" xfId="757"/>
+    <cellStyle name="Input 6 7" xfId="758"/>
+    <cellStyle name="Input 6 8" xfId="759"/>
+    <cellStyle name="Input 6 9" xfId="760"/>
+    <cellStyle name="Input 7" xfId="761"/>
+    <cellStyle name="Input 7 10" xfId="762"/>
+    <cellStyle name="Input 7 11" xfId="763"/>
+    <cellStyle name="Input 7 12" xfId="764"/>
+    <cellStyle name="Input 7 2" xfId="765"/>
+    <cellStyle name="Input 7 2 10" xfId="766"/>
+    <cellStyle name="Input 7 2 2" xfId="767"/>
+    <cellStyle name="Input 7 2 3" xfId="768"/>
+    <cellStyle name="Input 7 2 4" xfId="769"/>
+    <cellStyle name="Input 7 2 5" xfId="770"/>
+    <cellStyle name="Input 7 2 6" xfId="771"/>
+    <cellStyle name="Input 7 2 7" xfId="772"/>
+    <cellStyle name="Input 7 2 8" xfId="773"/>
+    <cellStyle name="Input 7 2 9" xfId="774"/>
+    <cellStyle name="Input 7 3" xfId="775"/>
+    <cellStyle name="Input 7 3 10" xfId="776"/>
+    <cellStyle name="Input 7 3 2" xfId="777"/>
+    <cellStyle name="Input 7 3 3" xfId="778"/>
+    <cellStyle name="Input 7 3 4" xfId="779"/>
+    <cellStyle name="Input 7 3 5" xfId="780"/>
+    <cellStyle name="Input 7 3 6" xfId="781"/>
+    <cellStyle name="Input 7 3 7" xfId="782"/>
+    <cellStyle name="Input 7 3 8" xfId="783"/>
+    <cellStyle name="Input 7 3 9" xfId="784"/>
+    <cellStyle name="Input 7 4" xfId="785"/>
+    <cellStyle name="Input 7 5" xfId="786"/>
+    <cellStyle name="Input 7 6" xfId="787"/>
+    <cellStyle name="Input 7 7" xfId="788"/>
+    <cellStyle name="Input 7 8" xfId="789"/>
+    <cellStyle name="Input 7 9" xfId="790"/>
+    <cellStyle name="Input 8" xfId="791"/>
+    <cellStyle name="Input 8 10" xfId="792"/>
+    <cellStyle name="Input 8 11" xfId="793"/>
+    <cellStyle name="Input 8 12" xfId="794"/>
+    <cellStyle name="Input 8 2" xfId="795"/>
+    <cellStyle name="Input 8 2 10" xfId="796"/>
+    <cellStyle name="Input 8 2 2" xfId="797"/>
+    <cellStyle name="Input 8 2 3" xfId="798"/>
+    <cellStyle name="Input 8 2 4" xfId="799"/>
+    <cellStyle name="Input 8 2 5" xfId="800"/>
+    <cellStyle name="Input 8 2 6" xfId="801"/>
+    <cellStyle name="Input 8 2 7" xfId="802"/>
+    <cellStyle name="Input 8 2 8" xfId="803"/>
+    <cellStyle name="Input 8 2 9" xfId="804"/>
+    <cellStyle name="Input 8 3" xfId="805"/>
+    <cellStyle name="Input 8 3 10" xfId="806"/>
+    <cellStyle name="Input 8 3 2" xfId="807"/>
+    <cellStyle name="Input 8 3 3" xfId="808"/>
+    <cellStyle name="Input 8 3 4" xfId="809"/>
+    <cellStyle name="Input 8 3 5" xfId="810"/>
+    <cellStyle name="Input 8 3 6" xfId="811"/>
+    <cellStyle name="Input 8 3 7" xfId="812"/>
+    <cellStyle name="Input 8 3 8" xfId="813"/>
+    <cellStyle name="Input 8 3 9" xfId="814"/>
+    <cellStyle name="Input 8 4" xfId="815"/>
+    <cellStyle name="Input 8 5" xfId="816"/>
+    <cellStyle name="Input 8 6" xfId="817"/>
+    <cellStyle name="Input 8 7" xfId="818"/>
+    <cellStyle name="Input 8 8" xfId="819"/>
+    <cellStyle name="Input 8 9" xfId="820"/>
+    <cellStyle name="Input 9" xfId="821"/>
+    <cellStyle name="Input 9 10" xfId="822"/>
+    <cellStyle name="Input 9 11" xfId="823"/>
+    <cellStyle name="Input 9 12" xfId="824"/>
+    <cellStyle name="Input 9 2" xfId="825"/>
+    <cellStyle name="Input 9 2 10" xfId="826"/>
+    <cellStyle name="Input 9 2 2" xfId="827"/>
+    <cellStyle name="Input 9 2 3" xfId="828"/>
+    <cellStyle name="Input 9 2 4" xfId="829"/>
+    <cellStyle name="Input 9 2 5" xfId="830"/>
+    <cellStyle name="Input 9 2 6" xfId="831"/>
+    <cellStyle name="Input 9 2 7" xfId="832"/>
+    <cellStyle name="Input 9 2 8" xfId="833"/>
+    <cellStyle name="Input 9 2 9" xfId="834"/>
+    <cellStyle name="Input 9 3" xfId="835"/>
+    <cellStyle name="Input 9 3 10" xfId="836"/>
+    <cellStyle name="Input 9 3 2" xfId="837"/>
+    <cellStyle name="Input 9 3 3" xfId="838"/>
+    <cellStyle name="Input 9 3 4" xfId="839"/>
+    <cellStyle name="Input 9 3 5" xfId="840"/>
+    <cellStyle name="Input 9 3 6" xfId="841"/>
+    <cellStyle name="Input 9 3 7" xfId="842"/>
+    <cellStyle name="Input 9 3 8" xfId="843"/>
+    <cellStyle name="Input 9 3 9" xfId="844"/>
+    <cellStyle name="Input 9 4" xfId="845"/>
+    <cellStyle name="Input 9 5" xfId="846"/>
+    <cellStyle name="Input 9 6" xfId="847"/>
+    <cellStyle name="Input 9 7" xfId="848"/>
+    <cellStyle name="Input 9 8" xfId="849"/>
+    <cellStyle name="Input 9 9" xfId="850"/>
+    <cellStyle name="Linked Cell 10" xfId="851"/>
+    <cellStyle name="Linked Cell 2" xfId="852"/>
+    <cellStyle name="Linked Cell 3" xfId="853"/>
+    <cellStyle name="Linked Cell 4" xfId="854"/>
+    <cellStyle name="Linked Cell 5" xfId="855"/>
+    <cellStyle name="Linked Cell 6" xfId="856"/>
+    <cellStyle name="Linked Cell 7" xfId="857"/>
+    <cellStyle name="Linked Cell 8" xfId="858"/>
+    <cellStyle name="Linked Cell 9" xfId="859"/>
+    <cellStyle name="Neutral 10" xfId="860"/>
+    <cellStyle name="Neutral 2" xfId="861"/>
+    <cellStyle name="Neutral 3" xfId="862"/>
+    <cellStyle name="Neutral 4" xfId="863"/>
+    <cellStyle name="Neutral 5" xfId="864"/>
+    <cellStyle name="Neutral 6" xfId="865"/>
+    <cellStyle name="Neutral 7" xfId="866"/>
+    <cellStyle name="Neutral 8" xfId="867"/>
+    <cellStyle name="Neutral 9" xfId="868"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="869"/>
+    <cellStyle name="Normal 11" xfId="870"/>
+    <cellStyle name="Normal 12" xfId="871"/>
+    <cellStyle name="Normal 12 2" xfId="872"/>
+    <cellStyle name="Normal 12 2 2" xfId="873"/>
+    <cellStyle name="Normal 12 2 3" xfId="874"/>
+    <cellStyle name="Normal 12 3" xfId="875"/>
+    <cellStyle name="Normal 12 3 2" xfId="876"/>
+    <cellStyle name="Normal 12 3 3" xfId="877"/>
+    <cellStyle name="Normal 12 4" xfId="878"/>
+    <cellStyle name="Normal 12 5" xfId="879"/>
+    <cellStyle name="Normal 13" xfId="880"/>
+    <cellStyle name="Normal 13 2" xfId="881"/>
+    <cellStyle name="Normal 13 2 2" xfId="882"/>
+    <cellStyle name="Normal 13 2 3" xfId="883"/>
+    <cellStyle name="Normal 13 2 4" xfId="884"/>
+    <cellStyle name="Normal 13 3" xfId="885"/>
+    <cellStyle name="Normal 13 3 2" xfId="886"/>
+    <cellStyle name="Normal 13 3 3" xfId="887"/>
+    <cellStyle name="Normal 13 4" xfId="888"/>
+    <cellStyle name="Normal 13 4 2" xfId="889"/>
+    <cellStyle name="Normal 13 4 3" xfId="890"/>
+    <cellStyle name="Normal 13 5" xfId="891"/>
+    <cellStyle name="Normal 13 6" xfId="892"/>
+    <cellStyle name="Normal 13 7" xfId="893"/>
+    <cellStyle name="Normal 13 7 2" xfId="894"/>
+    <cellStyle name="Normal 13 7 3" xfId="895"/>
+    <cellStyle name="Normal 13 7 4" xfId="896"/>
+    <cellStyle name="Normal 13 7 5" xfId="897"/>
+    <cellStyle name="Normal 13 7 5 2" xfId="898"/>
+    <cellStyle name="Normal 14" xfId="899"/>
+    <cellStyle name="Normal 14 2" xfId="900"/>
+    <cellStyle name="Normal 14 2 2" xfId="901"/>
+    <cellStyle name="Normal 14 2 3" xfId="902"/>
+    <cellStyle name="Normal 14 2 4" xfId="903"/>
+    <cellStyle name="Normal 14 3" xfId="904"/>
+    <cellStyle name="Normal 14 3 2" xfId="905"/>
+    <cellStyle name="Normal 14 3 3" xfId="906"/>
+    <cellStyle name="Normal 14 4" xfId="907"/>
+    <cellStyle name="Normal 14 4 2" xfId="908"/>
+    <cellStyle name="Normal 14 4 3" xfId="909"/>
+    <cellStyle name="Normal 14 5" xfId="910"/>
+    <cellStyle name="Normal 14 6" xfId="911"/>
+    <cellStyle name="Normal 14 6 2" xfId="912"/>
+    <cellStyle name="Normal 14 7" xfId="913"/>
+    <cellStyle name="Normal 15" xfId="914"/>
+    <cellStyle name="Normal 15 2" xfId="915"/>
+    <cellStyle name="Normal 15 2 2" xfId="916"/>
+    <cellStyle name="Normal 15 2 3" xfId="917"/>
+    <cellStyle name="Normal 15 2 4" xfId="918"/>
+    <cellStyle name="Normal 15 3" xfId="919"/>
+    <cellStyle name="Normal 15 3 2" xfId="920"/>
+    <cellStyle name="Normal 15 3 3" xfId="921"/>
+    <cellStyle name="Normal 15 4" xfId="922"/>
+    <cellStyle name="Normal 15 4 2" xfId="923"/>
+    <cellStyle name="Normal 15 4 3" xfId="924"/>
+    <cellStyle name="Normal 15 5" xfId="925"/>
+    <cellStyle name="Normal 15 6" xfId="926"/>
+    <cellStyle name="Normal 15 6 2" xfId="927"/>
+    <cellStyle name="Normal 15 7" xfId="928"/>
+    <cellStyle name="Normal 15 8" xfId="929"/>
+    <cellStyle name="Normal 16" xfId="930"/>
+    <cellStyle name="Normal 16 2" xfId="931"/>
+    <cellStyle name="Normal 16 2 2" xfId="932"/>
+    <cellStyle name="Normal 16 2 3" xfId="933"/>
+    <cellStyle name="Normal 16 2 4" xfId="934"/>
+    <cellStyle name="Normal 16 3" xfId="935"/>
+    <cellStyle name="Normal 16 3 2" xfId="936"/>
+    <cellStyle name="Normal 16 3 3" xfId="937"/>
+    <cellStyle name="Normal 16 4" xfId="938"/>
+    <cellStyle name="Normal 16 4 2" xfId="939"/>
+    <cellStyle name="Normal 16 4 3" xfId="940"/>
+    <cellStyle name="Normal 16 5" xfId="941"/>
+    <cellStyle name="Normal 16 6" xfId="942"/>
+    <cellStyle name="Normal 16 6 2" xfId="943"/>
+    <cellStyle name="Normal 16 7" xfId="944"/>
+    <cellStyle name="Normal 17" xfId="945"/>
+    <cellStyle name="Normal 18" xfId="946"/>
+    <cellStyle name="Normal 19" xfId="947"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="948"/>
+    <cellStyle name="Normal 2 3" xfId="949"/>
+    <cellStyle name="Normal 2 4" xfId="950"/>
+    <cellStyle name="Normal 2 5" xfId="951"/>
+    <cellStyle name="Normal 2 6" xfId="952"/>
+    <cellStyle name="Normal 2 6 2" xfId="953"/>
+    <cellStyle name="Normal 2 6 2 2" xfId="954"/>
+    <cellStyle name="Normal 2 6 2 3" xfId="955"/>
+    <cellStyle name="Normal 2 6 2 4" xfId="956"/>
+    <cellStyle name="Normal 2 6 3" xfId="957"/>
+    <cellStyle name="Normal 2 6 3 2" xfId="958"/>
+    <cellStyle name="Normal 2 6 3 3" xfId="959"/>
+    <cellStyle name="Normal 2 6 4" xfId="960"/>
+    <cellStyle name="Normal 2 6 4 2" xfId="961"/>
+    <cellStyle name="Normal 2 6 4 3" xfId="962"/>
+    <cellStyle name="Normal 2 6 5" xfId="963"/>
+    <cellStyle name="Normal 2 6 6" xfId="964"/>
+    <cellStyle name="Normal 2 6 7" xfId="965"/>
+    <cellStyle name="Normal 2 7" xfId="966"/>
+    <cellStyle name="Normal 2 8" xfId="967"/>
+    <cellStyle name="Normal 2 9" xfId="968"/>
+    <cellStyle name="Normal 20" xfId="969"/>
+    <cellStyle name="Normal 21" xfId="970"/>
+    <cellStyle name="Normal 22" xfId="971"/>
+    <cellStyle name="Normal 23" xfId="972"/>
+    <cellStyle name="Normal 24" xfId="973"/>
+    <cellStyle name="Normal 24 2" xfId="974"/>
+    <cellStyle name="Normal 24 2 2" xfId="975"/>
+    <cellStyle name="Normal 24 2 3" xfId="976"/>
+    <cellStyle name="Normal 24 2 4" xfId="977"/>
+    <cellStyle name="Normal 24 3" xfId="978"/>
+    <cellStyle name="Normal 24 4" xfId="979"/>
+    <cellStyle name="Normal 24 5" xfId="980"/>
+    <cellStyle name="Normal 25" xfId="981"/>
+    <cellStyle name="Normal 26" xfId="982"/>
+    <cellStyle name="Normal 27" xfId="983"/>
+    <cellStyle name="Normal 28" xfId="984"/>
+    <cellStyle name="Normal 29" xfId="985"/>
+    <cellStyle name="Normal 3" xfId="986"/>
+    <cellStyle name="Normal 3 2" xfId="987"/>
+    <cellStyle name="Normal 3 2 2" xfId="988"/>
+    <cellStyle name="Normal 3 3" xfId="989"/>
+    <cellStyle name="Normal 30" xfId="990"/>
+    <cellStyle name="Normal 31" xfId="991"/>
+    <cellStyle name="Normal 4" xfId="992"/>
+    <cellStyle name="Normal 4 2" xfId="993"/>
+    <cellStyle name="Normal 4 2 2" xfId="994"/>
+    <cellStyle name="Normal 4 2 3" xfId="995"/>
+    <cellStyle name="Normal 4 2 4" xfId="996"/>
+    <cellStyle name="Normal 4 3" xfId="997"/>
+    <cellStyle name="Normal 4 4" xfId="998"/>
+    <cellStyle name="Normal 4 5" xfId="999"/>
+    <cellStyle name="Normal 4 6" xfId="1000"/>
+    <cellStyle name="Normal 4 7" xfId="1001"/>
+    <cellStyle name="Normal 5" xfId="1002"/>
+    <cellStyle name="Normal 5 2" xfId="1003"/>
+    <cellStyle name="Normal 5 3" xfId="1004"/>
+    <cellStyle name="Normal 5 4" xfId="1005"/>
+    <cellStyle name="Normal 5 5" xfId="1006"/>
+    <cellStyle name="Normal 5 6" xfId="1007"/>
+    <cellStyle name="Normal 6" xfId="1"/>
+    <cellStyle name="Normal 6 2" xfId="1008"/>
+    <cellStyle name="Normal 6 2 2" xfId="1009"/>
+    <cellStyle name="Normal 6 2 3" xfId="1010"/>
+    <cellStyle name="Normal 6 2 4" xfId="1011"/>
+    <cellStyle name="Normal 6 3" xfId="1012"/>
+    <cellStyle name="Normal 6 3 2" xfId="1013"/>
+    <cellStyle name="Normal 6 3 3" xfId="1014"/>
+    <cellStyle name="Normal 6 4" xfId="1015"/>
+    <cellStyle name="Normal 6 4 2" xfId="1016"/>
+    <cellStyle name="Normal 6 4 3" xfId="1017"/>
+    <cellStyle name="Normal 6 5" xfId="1018"/>
+    <cellStyle name="Normal 6 6" xfId="1019"/>
+    <cellStyle name="Normal 6 6 2" xfId="1020"/>
+    <cellStyle name="Normal 6 7" xfId="1021"/>
+    <cellStyle name="Normal 6 8" xfId="1022"/>
+    <cellStyle name="Normal 7" xfId="1023"/>
+    <cellStyle name="Normal 7 2" xfId="1024"/>
+    <cellStyle name="Normal 7 2 2" xfId="1025"/>
+    <cellStyle name="Normal 7 2 3" xfId="1026"/>
+    <cellStyle name="Normal 7 2 4" xfId="1027"/>
+    <cellStyle name="Normal 7 2 5" xfId="1028"/>
+    <cellStyle name="Normal 7 3" xfId="1029"/>
+    <cellStyle name="Normal 7 3 2" xfId="1030"/>
+    <cellStyle name="Normal 7 3 3" xfId="1031"/>
+    <cellStyle name="Normal 7 4" xfId="1032"/>
+    <cellStyle name="Normal 7 4 2" xfId="1033"/>
+    <cellStyle name="Normal 7 4 3" xfId="1034"/>
+    <cellStyle name="Normal 7 5" xfId="1035"/>
+    <cellStyle name="Normal 7 6" xfId="1036"/>
+    <cellStyle name="Normal 7 6 2" xfId="1037"/>
+    <cellStyle name="Normal 7 7" xfId="1038"/>
+    <cellStyle name="Normal 7 8" xfId="1039"/>
+    <cellStyle name="Normal 7 9" xfId="1040"/>
+    <cellStyle name="Normal 8" xfId="1041"/>
+    <cellStyle name="Normal 9" xfId="1042"/>
+    <cellStyle name="Note 10" xfId="1043"/>
+    <cellStyle name="Note 10 10" xfId="1044"/>
+    <cellStyle name="Note 10 11" xfId="1045"/>
+    <cellStyle name="Note 10 12" xfId="1046"/>
+    <cellStyle name="Note 10 2" xfId="1047"/>
+    <cellStyle name="Note 10 2 10" xfId="1048"/>
+    <cellStyle name="Note 10 2 2" xfId="1049"/>
+    <cellStyle name="Note 10 2 3" xfId="1050"/>
+    <cellStyle name="Note 10 2 4" xfId="1051"/>
+    <cellStyle name="Note 10 2 5" xfId="1052"/>
+    <cellStyle name="Note 10 2 6" xfId="1053"/>
+    <cellStyle name="Note 10 2 7" xfId="1054"/>
+    <cellStyle name="Note 10 2 8" xfId="1055"/>
+    <cellStyle name="Note 10 2 9" xfId="1056"/>
+    <cellStyle name="Note 10 3" xfId="1057"/>
+    <cellStyle name="Note 10 3 10" xfId="1058"/>
+    <cellStyle name="Note 10 3 2" xfId="1059"/>
+    <cellStyle name="Note 10 3 3" xfId="1060"/>
+    <cellStyle name="Note 10 3 4" xfId="1061"/>
+    <cellStyle name="Note 10 3 5" xfId="1062"/>
+    <cellStyle name="Note 10 3 6" xfId="1063"/>
+    <cellStyle name="Note 10 3 7" xfId="1064"/>
+    <cellStyle name="Note 10 3 8" xfId="1065"/>
+    <cellStyle name="Note 10 3 9" xfId="1066"/>
+    <cellStyle name="Note 10 4" xfId="1067"/>
+    <cellStyle name="Note 10 5" xfId="1068"/>
+    <cellStyle name="Note 10 6" xfId="1069"/>
+    <cellStyle name="Note 10 7" xfId="1070"/>
+    <cellStyle name="Note 10 8" xfId="1071"/>
+    <cellStyle name="Note 10 9" xfId="1072"/>
+    <cellStyle name="Note 2" xfId="1073"/>
+    <cellStyle name="Note 2 10" xfId="1074"/>
+    <cellStyle name="Note 2 11" xfId="1075"/>
+    <cellStyle name="Note 2 12" xfId="1076"/>
+    <cellStyle name="Note 2 2" xfId="1077"/>
+    <cellStyle name="Note 2 2 10" xfId="1078"/>
+    <cellStyle name="Note 2 2 2" xfId="1079"/>
+    <cellStyle name="Note 2 2 3" xfId="1080"/>
+    <cellStyle name="Note 2 2 4" xfId="1081"/>
+    <cellStyle name="Note 2 2 5" xfId="1082"/>
+    <cellStyle name="Note 2 2 6" xfId="1083"/>
+    <cellStyle name="Note 2 2 7" xfId="1084"/>
+    <cellStyle name="Note 2 2 8" xfId="1085"/>
+    <cellStyle name="Note 2 2 9" xfId="1086"/>
+    <cellStyle name="Note 2 3" xfId="1087"/>
+    <cellStyle name="Note 2 3 10" xfId="1088"/>
+    <cellStyle name="Note 2 3 2" xfId="1089"/>
+    <cellStyle name="Note 2 3 3" xfId="1090"/>
+    <cellStyle name="Note 2 3 4" xfId="1091"/>
+    <cellStyle name="Note 2 3 5" xfId="1092"/>
+    <cellStyle name="Note 2 3 6" xfId="1093"/>
+    <cellStyle name="Note 2 3 7" xfId="1094"/>
+    <cellStyle name="Note 2 3 8" xfId="1095"/>
+    <cellStyle name="Note 2 3 9" xfId="1096"/>
+    <cellStyle name="Note 2 4" xfId="1097"/>
+    <cellStyle name="Note 2 5" xfId="1098"/>
+    <cellStyle name="Note 2 6" xfId="1099"/>
+    <cellStyle name="Note 2 7" xfId="1100"/>
+    <cellStyle name="Note 2 8" xfId="1101"/>
+    <cellStyle name="Note 2 9" xfId="1102"/>
+    <cellStyle name="Note 3" xfId="1103"/>
+    <cellStyle name="Note 3 10" xfId="1104"/>
+    <cellStyle name="Note 3 11" xfId="1105"/>
+    <cellStyle name="Note 3 12" xfId="1106"/>
+    <cellStyle name="Note 3 2" xfId="1107"/>
+    <cellStyle name="Note 3 2 10" xfId="1108"/>
+    <cellStyle name="Note 3 2 2" xfId="1109"/>
+    <cellStyle name="Note 3 2 3" xfId="1110"/>
+    <cellStyle name="Note 3 2 4" xfId="1111"/>
+    <cellStyle name="Note 3 2 5" xfId="1112"/>
+    <cellStyle name="Note 3 2 6" xfId="1113"/>
+    <cellStyle name="Note 3 2 7" xfId="1114"/>
+    <cellStyle name="Note 3 2 8" xfId="1115"/>
+    <cellStyle name="Note 3 2 9" xfId="1116"/>
+    <cellStyle name="Note 3 3" xfId="1117"/>
+    <cellStyle name="Note 3 3 10" xfId="1118"/>
+    <cellStyle name="Note 3 3 2" xfId="1119"/>
+    <cellStyle name="Note 3 3 3" xfId="1120"/>
+    <cellStyle name="Note 3 3 4" xfId="1121"/>
+    <cellStyle name="Note 3 3 5" xfId="1122"/>
+    <cellStyle name="Note 3 3 6" xfId="1123"/>
+    <cellStyle name="Note 3 3 7" xfId="1124"/>
+    <cellStyle name="Note 3 3 8" xfId="1125"/>
+    <cellStyle name="Note 3 3 9" xfId="1126"/>
+    <cellStyle name="Note 3 4" xfId="1127"/>
+    <cellStyle name="Note 3 5" xfId="1128"/>
+    <cellStyle name="Note 3 6" xfId="1129"/>
+    <cellStyle name="Note 3 7" xfId="1130"/>
+    <cellStyle name="Note 3 8" xfId="1131"/>
+    <cellStyle name="Note 3 9" xfId="1132"/>
+    <cellStyle name="Note 4" xfId="1133"/>
+    <cellStyle name="Note 4 10" xfId="1134"/>
+    <cellStyle name="Note 4 11" xfId="1135"/>
+    <cellStyle name="Note 4 12" xfId="1136"/>
+    <cellStyle name="Note 4 2" xfId="1137"/>
+    <cellStyle name="Note 4 2 10" xfId="1138"/>
+    <cellStyle name="Note 4 2 2" xfId="1139"/>
+    <cellStyle name="Note 4 2 3" xfId="1140"/>
+    <cellStyle name="Note 4 2 4" xfId="1141"/>
+    <cellStyle name="Note 4 2 5" xfId="1142"/>
+    <cellStyle name="Note 4 2 6" xfId="1143"/>
+    <cellStyle name="Note 4 2 7" xfId="1144"/>
+    <cellStyle name="Note 4 2 8" xfId="1145"/>
+    <cellStyle name="Note 4 2 9" xfId="1146"/>
+    <cellStyle name="Note 4 3" xfId="1147"/>
+    <cellStyle name="Note 4 3 10" xfId="1148"/>
+    <cellStyle name="Note 4 3 2" xfId="1149"/>
+    <cellStyle name="Note 4 3 3" xfId="1150"/>
+    <cellStyle name="Note 4 3 4" xfId="1151"/>
+    <cellStyle name="Note 4 3 5" xfId="1152"/>
+    <cellStyle name="Note 4 3 6" xfId="1153"/>
+    <cellStyle name="Note 4 3 7" xfId="1154"/>
+    <cellStyle name="Note 4 3 8" xfId="1155"/>
+    <cellStyle name="Note 4 3 9" xfId="1156"/>
+    <cellStyle name="Note 4 4" xfId="1157"/>
+    <cellStyle name="Note 4 5" xfId="1158"/>
+    <cellStyle name="Note 4 6" xfId="1159"/>
+    <cellStyle name="Note 4 7" xfId="1160"/>
+    <cellStyle name="Note 4 8" xfId="1161"/>
+    <cellStyle name="Note 4 9" xfId="1162"/>
+    <cellStyle name="Note 5" xfId="1163"/>
+    <cellStyle name="Note 5 10" xfId="1164"/>
+    <cellStyle name="Note 5 11" xfId="1165"/>
+    <cellStyle name="Note 5 12" xfId="1166"/>
+    <cellStyle name="Note 5 2" xfId="1167"/>
+    <cellStyle name="Note 5 2 10" xfId="1168"/>
+    <cellStyle name="Note 5 2 2" xfId="1169"/>
+    <cellStyle name="Note 5 2 3" xfId="1170"/>
+    <cellStyle name="Note 5 2 4" xfId="1171"/>
+    <cellStyle name="Note 5 2 5" xfId="1172"/>
+    <cellStyle name="Note 5 2 6" xfId="1173"/>
+    <cellStyle name="Note 5 2 7" xfId="1174"/>
+    <cellStyle name="Note 5 2 8" xfId="1175"/>
+    <cellStyle name="Note 5 2 9" xfId="1176"/>
+    <cellStyle name="Note 5 3" xfId="1177"/>
+    <cellStyle name="Note 5 3 10" xfId="1178"/>
+    <cellStyle name="Note 5 3 2" xfId="1179"/>
+    <cellStyle name="Note 5 3 3" xfId="1180"/>
+    <cellStyle name="Note 5 3 4" xfId="1181"/>
+    <cellStyle name="Note 5 3 5" xfId="1182"/>
+    <cellStyle name="Note 5 3 6" xfId="1183"/>
+    <cellStyle name="Note 5 3 7" xfId="1184"/>
+    <cellStyle name="Note 5 3 8" xfId="1185"/>
+    <cellStyle name="Note 5 3 9" xfId="1186"/>
+    <cellStyle name="Note 5 4" xfId="1187"/>
+    <cellStyle name="Note 5 5" xfId="1188"/>
+    <cellStyle name="Note 5 6" xfId="1189"/>
+    <cellStyle name="Note 5 7" xfId="1190"/>
+    <cellStyle name="Note 5 8" xfId="1191"/>
+    <cellStyle name="Note 5 9" xfId="1192"/>
+    <cellStyle name="Note 6" xfId="1193"/>
+    <cellStyle name="Note 6 10" xfId="1194"/>
+    <cellStyle name="Note 6 11" xfId="1195"/>
+    <cellStyle name="Note 6 12" xfId="1196"/>
+    <cellStyle name="Note 6 2" xfId="1197"/>
+    <cellStyle name="Note 6 2 10" xfId="1198"/>
+    <cellStyle name="Note 6 2 2" xfId="1199"/>
+    <cellStyle name="Note 6 2 3" xfId="1200"/>
+    <cellStyle name="Note 6 2 4" xfId="1201"/>
+    <cellStyle name="Note 6 2 5" xfId="1202"/>
+    <cellStyle name="Note 6 2 6" xfId="1203"/>
+    <cellStyle name="Note 6 2 7" xfId="1204"/>
+    <cellStyle name="Note 6 2 8" xfId="1205"/>
+    <cellStyle name="Note 6 2 9" xfId="1206"/>
+    <cellStyle name="Note 6 3" xfId="1207"/>
+    <cellStyle name="Note 6 3 10" xfId="1208"/>
+    <cellStyle name="Note 6 3 2" xfId="1209"/>
+    <cellStyle name="Note 6 3 3" xfId="1210"/>
+    <cellStyle name="Note 6 3 4" xfId="1211"/>
+    <cellStyle name="Note 6 3 5" xfId="1212"/>
+    <cellStyle name="Note 6 3 6" xfId="1213"/>
+    <cellStyle name="Note 6 3 7" xfId="1214"/>
+    <cellStyle name="Note 6 3 8" xfId="1215"/>
+    <cellStyle name="Note 6 3 9" xfId="1216"/>
+    <cellStyle name="Note 6 4" xfId="1217"/>
+    <cellStyle name="Note 6 5" xfId="1218"/>
+    <cellStyle name="Note 6 6" xfId="1219"/>
+    <cellStyle name="Note 6 7" xfId="1220"/>
+    <cellStyle name="Note 6 8" xfId="1221"/>
+    <cellStyle name="Note 6 9" xfId="1222"/>
+    <cellStyle name="Note 7" xfId="1223"/>
+    <cellStyle name="Note 7 10" xfId="1224"/>
+    <cellStyle name="Note 7 11" xfId="1225"/>
+    <cellStyle name="Note 7 12" xfId="1226"/>
+    <cellStyle name="Note 7 2" xfId="1227"/>
+    <cellStyle name="Note 7 2 10" xfId="1228"/>
+    <cellStyle name="Note 7 2 2" xfId="1229"/>
+    <cellStyle name="Note 7 2 3" xfId="1230"/>
+    <cellStyle name="Note 7 2 4" xfId="1231"/>
+    <cellStyle name="Note 7 2 5" xfId="1232"/>
+    <cellStyle name="Note 7 2 6" xfId="1233"/>
+    <cellStyle name="Note 7 2 7" xfId="1234"/>
+    <cellStyle name="Note 7 2 8" xfId="1235"/>
+    <cellStyle name="Note 7 2 9" xfId="1236"/>
+    <cellStyle name="Note 7 3" xfId="1237"/>
+    <cellStyle name="Note 7 3 10" xfId="1238"/>
+    <cellStyle name="Note 7 3 2" xfId="1239"/>
+    <cellStyle name="Note 7 3 3" xfId="1240"/>
+    <cellStyle name="Note 7 3 4" xfId="1241"/>
+    <cellStyle name="Note 7 3 5" xfId="1242"/>
+    <cellStyle name="Note 7 3 6" xfId="1243"/>
+    <cellStyle name="Note 7 3 7" xfId="1244"/>
+    <cellStyle name="Note 7 3 8" xfId="1245"/>
+    <cellStyle name="Note 7 3 9" xfId="1246"/>
+    <cellStyle name="Note 7 4" xfId="1247"/>
+    <cellStyle name="Note 7 5" xfId="1248"/>
+    <cellStyle name="Note 7 6" xfId="1249"/>
+    <cellStyle name="Note 7 7" xfId="1250"/>
+    <cellStyle name="Note 7 8" xfId="1251"/>
+    <cellStyle name="Note 7 9" xfId="1252"/>
+    <cellStyle name="Note 8" xfId="1253"/>
+    <cellStyle name="Note 8 10" xfId="1254"/>
+    <cellStyle name="Note 8 11" xfId="1255"/>
+    <cellStyle name="Note 8 12" xfId="1256"/>
+    <cellStyle name="Note 8 2" xfId="1257"/>
+    <cellStyle name="Note 8 2 10" xfId="1258"/>
+    <cellStyle name="Note 8 2 2" xfId="1259"/>
+    <cellStyle name="Note 8 2 3" xfId="1260"/>
+    <cellStyle name="Note 8 2 4" xfId="1261"/>
+    <cellStyle name="Note 8 2 5" xfId="1262"/>
+    <cellStyle name="Note 8 2 6" xfId="1263"/>
+    <cellStyle name="Note 8 2 7" xfId="1264"/>
+    <cellStyle name="Note 8 2 8" xfId="1265"/>
+    <cellStyle name="Note 8 2 9" xfId="1266"/>
+    <cellStyle name="Note 8 3" xfId="1267"/>
+    <cellStyle name="Note 8 3 10" xfId="1268"/>
+    <cellStyle name="Note 8 3 2" xfId="1269"/>
+    <cellStyle name="Note 8 3 3" xfId="1270"/>
+    <cellStyle name="Note 8 3 4" xfId="1271"/>
+    <cellStyle name="Note 8 3 5" xfId="1272"/>
+    <cellStyle name="Note 8 3 6" xfId="1273"/>
+    <cellStyle name="Note 8 3 7" xfId="1274"/>
+    <cellStyle name="Note 8 3 8" xfId="1275"/>
+    <cellStyle name="Note 8 3 9" xfId="1276"/>
+    <cellStyle name="Note 8 4" xfId="1277"/>
+    <cellStyle name="Note 8 5" xfId="1278"/>
+    <cellStyle name="Note 8 6" xfId="1279"/>
+    <cellStyle name="Note 8 7" xfId="1280"/>
+    <cellStyle name="Note 8 8" xfId="1281"/>
+    <cellStyle name="Note 8 9" xfId="1282"/>
+    <cellStyle name="Note 9" xfId="1283"/>
+    <cellStyle name="Note 9 10" xfId="1284"/>
+    <cellStyle name="Note 9 11" xfId="1285"/>
+    <cellStyle name="Note 9 12" xfId="1286"/>
+    <cellStyle name="Note 9 2" xfId="1287"/>
+    <cellStyle name="Note 9 2 10" xfId="1288"/>
+    <cellStyle name="Note 9 2 2" xfId="1289"/>
+    <cellStyle name="Note 9 2 3" xfId="1290"/>
+    <cellStyle name="Note 9 2 4" xfId="1291"/>
+    <cellStyle name="Note 9 2 5" xfId="1292"/>
+    <cellStyle name="Note 9 2 6" xfId="1293"/>
+    <cellStyle name="Note 9 2 7" xfId="1294"/>
+    <cellStyle name="Note 9 2 8" xfId="1295"/>
+    <cellStyle name="Note 9 2 9" xfId="1296"/>
+    <cellStyle name="Note 9 3" xfId="1297"/>
+    <cellStyle name="Note 9 3 10" xfId="1298"/>
+    <cellStyle name="Note 9 3 2" xfId="1299"/>
+    <cellStyle name="Note 9 3 3" xfId="1300"/>
+    <cellStyle name="Note 9 3 4" xfId="1301"/>
+    <cellStyle name="Note 9 3 5" xfId="1302"/>
+    <cellStyle name="Note 9 3 6" xfId="1303"/>
+    <cellStyle name="Note 9 3 7" xfId="1304"/>
+    <cellStyle name="Note 9 3 8" xfId="1305"/>
+    <cellStyle name="Note 9 3 9" xfId="1306"/>
+    <cellStyle name="Note 9 4" xfId="1307"/>
+    <cellStyle name="Note 9 5" xfId="1308"/>
+    <cellStyle name="Note 9 6" xfId="1309"/>
+    <cellStyle name="Note 9 7" xfId="1310"/>
+    <cellStyle name="Note 9 8" xfId="1311"/>
+    <cellStyle name="Note 9 9" xfId="1312"/>
+    <cellStyle name="Output 10" xfId="1313"/>
+    <cellStyle name="Output 10 10" xfId="1314"/>
+    <cellStyle name="Output 10 11" xfId="1315"/>
+    <cellStyle name="Output 10 12" xfId="1316"/>
+    <cellStyle name="Output 10 2" xfId="1317"/>
+    <cellStyle name="Output 10 2 10" xfId="1318"/>
+    <cellStyle name="Output 10 2 2" xfId="1319"/>
+    <cellStyle name="Output 10 2 3" xfId="1320"/>
+    <cellStyle name="Output 10 2 4" xfId="1321"/>
+    <cellStyle name="Output 10 2 5" xfId="1322"/>
+    <cellStyle name="Output 10 2 6" xfId="1323"/>
+    <cellStyle name="Output 10 2 7" xfId="1324"/>
+    <cellStyle name="Output 10 2 8" xfId="1325"/>
+    <cellStyle name="Output 10 2 9" xfId="1326"/>
+    <cellStyle name="Output 10 3" xfId="1327"/>
+    <cellStyle name="Output 10 3 10" xfId="1328"/>
+    <cellStyle name="Output 10 3 2" xfId="1329"/>
+    <cellStyle name="Output 10 3 3" xfId="1330"/>
+    <cellStyle name="Output 10 3 4" xfId="1331"/>
+    <cellStyle name="Output 10 3 5" xfId="1332"/>
+    <cellStyle name="Output 10 3 6" xfId="1333"/>
+    <cellStyle name="Output 10 3 7" xfId="1334"/>
+    <cellStyle name="Output 10 3 8" xfId="1335"/>
+    <cellStyle name="Output 10 3 9" xfId="1336"/>
+    <cellStyle name="Output 10 4" xfId="1337"/>
+    <cellStyle name="Output 10 5" xfId="1338"/>
+    <cellStyle name="Output 10 6" xfId="1339"/>
+    <cellStyle name="Output 10 7" xfId="1340"/>
+    <cellStyle name="Output 10 8" xfId="1341"/>
+    <cellStyle name="Output 10 9" xfId="1342"/>
+    <cellStyle name="Output 2" xfId="1343"/>
+    <cellStyle name="Output 2 10" xfId="1344"/>
+    <cellStyle name="Output 2 11" xfId="1345"/>
+    <cellStyle name="Output 2 12" xfId="1346"/>
+    <cellStyle name="Output 2 2" xfId="1347"/>
+    <cellStyle name="Output 2 2 10" xfId="1348"/>
+    <cellStyle name="Output 2 2 2" xfId="1349"/>
+    <cellStyle name="Output 2 2 3" xfId="1350"/>
+    <cellStyle name="Output 2 2 4" xfId="1351"/>
+    <cellStyle name="Output 2 2 5" xfId="1352"/>
+    <cellStyle name="Output 2 2 6" xfId="1353"/>
+    <cellStyle name="Output 2 2 7" xfId="1354"/>
+    <cellStyle name="Output 2 2 8" xfId="1355"/>
+    <cellStyle name="Output 2 2 9" xfId="1356"/>
+    <cellStyle name="Output 2 3" xfId="1357"/>
+    <cellStyle name="Output 2 3 10" xfId="1358"/>
+    <cellStyle name="Output 2 3 2" xfId="1359"/>
+    <cellStyle name="Output 2 3 3" xfId="1360"/>
+    <cellStyle name="Output 2 3 4" xfId="1361"/>
+    <cellStyle name="Output 2 3 5" xfId="1362"/>
+    <cellStyle name="Output 2 3 6" xfId="1363"/>
+    <cellStyle name="Output 2 3 7" xfId="1364"/>
+    <cellStyle name="Output 2 3 8" xfId="1365"/>
+    <cellStyle name="Output 2 3 9" xfId="1366"/>
+    <cellStyle name="Output 2 4" xfId="1367"/>
+    <cellStyle name="Output 2 5" xfId="1368"/>
+    <cellStyle name="Output 2 6" xfId="1369"/>
+    <cellStyle name="Output 2 7" xfId="1370"/>
+    <cellStyle name="Output 2 8" xfId="1371"/>
+    <cellStyle name="Output 2 9" xfId="1372"/>
+    <cellStyle name="Output 3" xfId="1373"/>
+    <cellStyle name="Output 3 10" xfId="1374"/>
+    <cellStyle name="Output 3 11" xfId="1375"/>
+    <cellStyle name="Output 3 12" xfId="1376"/>
+    <cellStyle name="Output 3 2" xfId="1377"/>
+    <cellStyle name="Output 3 2 10" xfId="1378"/>
+    <cellStyle name="Output 3 2 2" xfId="1379"/>
+    <cellStyle name="Output 3 2 3" xfId="1380"/>
+    <cellStyle name="Output 3 2 4" xfId="1381"/>
+    <cellStyle name="Output 3 2 5" xfId="1382"/>
+    <cellStyle name="Output 3 2 6" xfId="1383"/>
+    <cellStyle name="Output 3 2 7" xfId="1384"/>
+    <cellStyle name="Output 3 2 8" xfId="1385"/>
+    <cellStyle name="Output 3 2 9" xfId="1386"/>
+    <cellStyle name="Output 3 3" xfId="1387"/>
+    <cellStyle name="Output 3 3 10" xfId="1388"/>
+    <cellStyle name="Output 3 3 2" xfId="1389"/>
+    <cellStyle name="Output 3 3 3" xfId="1390"/>
+    <cellStyle name="Output 3 3 4" xfId="1391"/>
+    <cellStyle name="Output 3 3 5" xfId="1392"/>
+    <cellStyle name="Output 3 3 6" xfId="1393"/>
+    <cellStyle name="Output 3 3 7" xfId="1394"/>
+    <cellStyle name="Output 3 3 8" xfId="1395"/>
+    <cellStyle name="Output 3 3 9" xfId="1396"/>
+    <cellStyle name="Output 3 4" xfId="1397"/>
+    <cellStyle name="Output 3 5" xfId="1398"/>
+    <cellStyle name="Output 3 6" xfId="1399"/>
+    <cellStyle name="Output 3 7" xfId="1400"/>
+    <cellStyle name="Output 3 8" xfId="1401"/>
+    <cellStyle name="Output 3 9" xfId="1402"/>
+    <cellStyle name="Output 4" xfId="1403"/>
+    <cellStyle name="Output 4 10" xfId="1404"/>
+    <cellStyle name="Output 4 11" xfId="1405"/>
+    <cellStyle name="Output 4 12" xfId="1406"/>
+    <cellStyle name="Output 4 2" xfId="1407"/>
+    <cellStyle name="Output 4 2 10" xfId="1408"/>
+    <cellStyle name="Output 4 2 2" xfId="1409"/>
+    <cellStyle name="Output 4 2 3" xfId="1410"/>
+    <cellStyle name="Output 4 2 4" xfId="1411"/>
+    <cellStyle name="Output 4 2 5" xfId="1412"/>
+    <cellStyle name="Output 4 2 6" xfId="1413"/>
+    <cellStyle name="Output 4 2 7" xfId="1414"/>
+    <cellStyle name="Output 4 2 8" xfId="1415"/>
+    <cellStyle name="Output 4 2 9" xfId="1416"/>
+    <cellStyle name="Output 4 3" xfId="1417"/>
+    <cellStyle name="Output 4 3 10" xfId="1418"/>
+    <cellStyle name="Output 4 3 2" xfId="1419"/>
+    <cellStyle name="Output 4 3 3" xfId="1420"/>
+    <cellStyle name="Output 4 3 4" xfId="1421"/>
+    <cellStyle name="Output 4 3 5" xfId="1422"/>
+    <cellStyle name="Output 4 3 6" xfId="1423"/>
+    <cellStyle name="Output 4 3 7" xfId="1424"/>
+    <cellStyle name="Output 4 3 8" xfId="1425"/>
+    <cellStyle name="Output 4 3 9" xfId="1426"/>
+    <cellStyle name="Output 4 4" xfId="1427"/>
+    <cellStyle name="Output 4 5" xfId="1428"/>
+    <cellStyle name="Output 4 6" xfId="1429"/>
+    <cellStyle name="Output 4 7" xfId="1430"/>
+    <cellStyle name="Output 4 8" xfId="1431"/>
+    <cellStyle name="Output 4 9" xfId="1432"/>
+    <cellStyle name="Output 5" xfId="1433"/>
+    <cellStyle name="Output 5 10" xfId="1434"/>
+    <cellStyle name="Output 5 11" xfId="1435"/>
+    <cellStyle name="Output 5 12" xfId="1436"/>
+    <cellStyle name="Output 5 2" xfId="1437"/>
+    <cellStyle name="Output 5 2 10" xfId="1438"/>
+    <cellStyle name="Output 5 2 2" xfId="1439"/>
+    <cellStyle name="Output 5 2 3" xfId="1440"/>
+    <cellStyle name="Output 5 2 4" xfId="1441"/>
+    <cellStyle name="Output 5 2 5" xfId="1442"/>
+    <cellStyle name="Output 5 2 6" xfId="1443"/>
+    <cellStyle name="Output 5 2 7" xfId="1444"/>
+    <cellStyle name="Output 5 2 8" xfId="1445"/>
+    <cellStyle name="Output 5 2 9" xfId="1446"/>
+    <cellStyle name="Output 5 3" xfId="1447"/>
+    <cellStyle name="Output 5 3 10" xfId="1448"/>
+    <cellStyle name="Output 5 3 2" xfId="1449"/>
+    <cellStyle name="Output 5 3 3" xfId="1450"/>
+    <cellStyle name="Output 5 3 4" xfId="1451"/>
+    <cellStyle name="Output 5 3 5" xfId="1452"/>
+    <cellStyle name="Output 5 3 6" xfId="1453"/>
+    <cellStyle name="Output 5 3 7" xfId="1454"/>
+    <cellStyle name="Output 5 3 8" xfId="1455"/>
+    <cellStyle name="Output 5 3 9" xfId="1456"/>
+    <cellStyle name="Output 5 4" xfId="1457"/>
+    <cellStyle name="Output 5 5" xfId="1458"/>
+    <cellStyle name="Output 5 6" xfId="1459"/>
+    <cellStyle name="Output 5 7" xfId="1460"/>
+    <cellStyle name="Output 5 8" xfId="1461"/>
+    <cellStyle name="Output 5 9" xfId="1462"/>
+    <cellStyle name="Output 6" xfId="1463"/>
+    <cellStyle name="Output 6 10" xfId="1464"/>
+    <cellStyle name="Output 6 11" xfId="1465"/>
+    <cellStyle name="Output 6 12" xfId="1466"/>
+    <cellStyle name="Output 6 2" xfId="1467"/>
+    <cellStyle name="Output 6 2 10" xfId="1468"/>
+    <cellStyle name="Output 6 2 2" xfId="1469"/>
+    <cellStyle name="Output 6 2 3" xfId="1470"/>
+    <cellStyle name="Output 6 2 4" xfId="1471"/>
+    <cellStyle name="Output 6 2 5" xfId="1472"/>
+    <cellStyle name="Output 6 2 6" xfId="1473"/>
+    <cellStyle name="Output 6 2 7" xfId="1474"/>
+    <cellStyle name="Output 6 2 8" xfId="1475"/>
+    <cellStyle name="Output 6 2 9" xfId="1476"/>
+    <cellStyle name="Output 6 3" xfId="1477"/>
+    <cellStyle name="Output 6 3 10" xfId="1478"/>
+    <cellStyle name="Output 6 3 2" xfId="1479"/>
+    <cellStyle name="Output 6 3 3" xfId="1480"/>
+    <cellStyle name="Output 6 3 4" xfId="1481"/>
+    <cellStyle name="Output 6 3 5" xfId="1482"/>
+    <cellStyle name="Output 6 3 6" xfId="1483"/>
+    <cellStyle name="Output 6 3 7" xfId="1484"/>
+    <cellStyle name="Output 6 3 8" xfId="1485"/>
+    <cellStyle name="Output 6 3 9" xfId="1486"/>
+    <cellStyle name="Output 6 4" xfId="1487"/>
+    <cellStyle name="Output 6 5" xfId="1488"/>
+    <cellStyle name="Output 6 6" xfId="1489"/>
+    <cellStyle name="Output 6 7" xfId="1490"/>
+    <cellStyle name="Output 6 8" xfId="1491"/>
+    <cellStyle name="Output 6 9" xfId="1492"/>
+    <cellStyle name="Output 7" xfId="1493"/>
+    <cellStyle name="Output 7 10" xfId="1494"/>
+    <cellStyle name="Output 7 11" xfId="1495"/>
+    <cellStyle name="Output 7 12" xfId="1496"/>
+    <cellStyle name="Output 7 2" xfId="1497"/>
+    <cellStyle name="Output 7 2 10" xfId="1498"/>
+    <cellStyle name="Output 7 2 2" xfId="1499"/>
+    <cellStyle name="Output 7 2 3" xfId="1500"/>
+    <cellStyle name="Output 7 2 4" xfId="1501"/>
+    <cellStyle name="Output 7 2 5" xfId="1502"/>
+    <cellStyle name="Output 7 2 6" xfId="1503"/>
+    <cellStyle name="Output 7 2 7" xfId="1504"/>
+    <cellStyle name="Output 7 2 8" xfId="1505"/>
+    <cellStyle name="Output 7 2 9" xfId="1506"/>
+    <cellStyle name="Output 7 3" xfId="1507"/>
+    <cellStyle name="Output 7 3 10" xfId="1508"/>
+    <cellStyle name="Output 7 3 2" xfId="1509"/>
+    <cellStyle name="Output 7 3 3" xfId="1510"/>
+    <cellStyle name="Output 7 3 4" xfId="1511"/>
+    <cellStyle name="Output 7 3 5" xfId="1512"/>
+    <cellStyle name="Output 7 3 6" xfId="1513"/>
+    <cellStyle name="Output 7 3 7" xfId="1514"/>
+    <cellStyle name="Output 7 3 8" xfId="1515"/>
+    <cellStyle name="Output 7 3 9" xfId="1516"/>
+    <cellStyle name="Output 7 4" xfId="1517"/>
+    <cellStyle name="Output 7 5" xfId="1518"/>
+    <cellStyle name="Output 7 6" xfId="1519"/>
+    <cellStyle name="Output 7 7" xfId="1520"/>
+    <cellStyle name="Output 7 8" xfId="1521"/>
+    <cellStyle name="Output 7 9" xfId="1522"/>
+    <cellStyle name="Output 8" xfId="1523"/>
+    <cellStyle name="Output 8 10" xfId="1524"/>
+    <cellStyle name="Output 8 11" xfId="1525"/>
+    <cellStyle name="Output 8 12" xfId="1526"/>
+    <cellStyle name="Output 8 2" xfId="1527"/>
+    <cellStyle name="Output 8 2 10" xfId="1528"/>
+    <cellStyle name="Output 8 2 2" xfId="1529"/>
+    <cellStyle name="Output 8 2 3" xfId="1530"/>
+    <cellStyle name="Output 8 2 4" xfId="1531"/>
+    <cellStyle name="Output 8 2 5" xfId="1532"/>
+    <cellStyle name="Output 8 2 6" xfId="1533"/>
+    <cellStyle name="Output 8 2 7" xfId="1534"/>
+    <cellStyle name="Output 8 2 8" xfId="1535"/>
+    <cellStyle name="Output 8 2 9" xfId="1536"/>
+    <cellStyle name="Output 8 3" xfId="1537"/>
+    <cellStyle name="Output 8 3 10" xfId="1538"/>
+    <cellStyle name="Output 8 3 2" xfId="1539"/>
+    <cellStyle name="Output 8 3 3" xfId="1540"/>
+    <cellStyle name="Output 8 3 4" xfId="1541"/>
+    <cellStyle name="Output 8 3 5" xfId="1542"/>
+    <cellStyle name="Output 8 3 6" xfId="1543"/>
+    <cellStyle name="Output 8 3 7" xfId="1544"/>
+    <cellStyle name="Output 8 3 8" xfId="1545"/>
+    <cellStyle name="Output 8 3 9" xfId="1546"/>
+    <cellStyle name="Output 8 4" xfId="1547"/>
+    <cellStyle name="Output 8 5" xfId="1548"/>
+    <cellStyle name="Output 8 6" xfId="1549"/>
+    <cellStyle name="Output 8 7" xfId="1550"/>
+    <cellStyle name="Output 8 8" xfId="1551"/>
+    <cellStyle name="Output 8 9" xfId="1552"/>
+    <cellStyle name="Output 9" xfId="1553"/>
+    <cellStyle name="Output 9 10" xfId="1554"/>
+    <cellStyle name="Output 9 11" xfId="1555"/>
+    <cellStyle name="Output 9 12" xfId="1556"/>
+    <cellStyle name="Output 9 2" xfId="1557"/>
+    <cellStyle name="Output 9 2 10" xfId="1558"/>
+    <cellStyle name="Output 9 2 2" xfId="1559"/>
+    <cellStyle name="Output 9 2 3" xfId="1560"/>
+    <cellStyle name="Output 9 2 4" xfId="1561"/>
+    <cellStyle name="Output 9 2 5" xfId="1562"/>
+    <cellStyle name="Output 9 2 6" xfId="1563"/>
+    <cellStyle name="Output 9 2 7" xfId="1564"/>
+    <cellStyle name="Output 9 2 8" xfId="1565"/>
+    <cellStyle name="Output 9 2 9" xfId="1566"/>
+    <cellStyle name="Output 9 3" xfId="1567"/>
+    <cellStyle name="Output 9 3 10" xfId="1568"/>
+    <cellStyle name="Output 9 3 2" xfId="1569"/>
+    <cellStyle name="Output 9 3 3" xfId="1570"/>
+    <cellStyle name="Output 9 3 4" xfId="1571"/>
+    <cellStyle name="Output 9 3 5" xfId="1572"/>
+    <cellStyle name="Output 9 3 6" xfId="1573"/>
+    <cellStyle name="Output 9 3 7" xfId="1574"/>
+    <cellStyle name="Output 9 3 8" xfId="1575"/>
+    <cellStyle name="Output 9 3 9" xfId="1576"/>
+    <cellStyle name="Output 9 4" xfId="1577"/>
+    <cellStyle name="Output 9 5" xfId="1578"/>
+    <cellStyle name="Output 9 6" xfId="1579"/>
+    <cellStyle name="Output 9 7" xfId="1580"/>
+    <cellStyle name="Output 9 8" xfId="1581"/>
+    <cellStyle name="Output 9 9" xfId="1582"/>
+    <cellStyle name="Percent 2" xfId="1583"/>
+    <cellStyle name="Section Heading" xfId="1584"/>
+    <cellStyle name="Title 10" xfId="1585"/>
+    <cellStyle name="Title 2" xfId="1586"/>
+    <cellStyle name="Title 3" xfId="1587"/>
+    <cellStyle name="Title 4" xfId="1588"/>
+    <cellStyle name="Title 5" xfId="1589"/>
+    <cellStyle name="Title 6" xfId="1590"/>
+    <cellStyle name="Title 7" xfId="1591"/>
+    <cellStyle name="Title 8" xfId="1592"/>
+    <cellStyle name="Title 9" xfId="1593"/>
+    <cellStyle name="Total 10" xfId="1594"/>
+    <cellStyle name="Total 10 10" xfId="1595"/>
+    <cellStyle name="Total 10 11" xfId="1596"/>
+    <cellStyle name="Total 10 12" xfId="1597"/>
+    <cellStyle name="Total 10 2" xfId="1598"/>
+    <cellStyle name="Total 10 2 10" xfId="1599"/>
+    <cellStyle name="Total 10 2 2" xfId="1600"/>
+    <cellStyle name="Total 10 2 3" xfId="1601"/>
+    <cellStyle name="Total 10 2 4" xfId="1602"/>
+    <cellStyle name="Total 10 2 5" xfId="1603"/>
+    <cellStyle name="Total 10 2 6" xfId="1604"/>
+    <cellStyle name="Total 10 2 7" xfId="1605"/>
+    <cellStyle name="Total 10 2 8" xfId="1606"/>
+    <cellStyle name="Total 10 2 9" xfId="1607"/>
+    <cellStyle name="Total 10 3" xfId="1608"/>
+    <cellStyle name="Total 10 3 10" xfId="1609"/>
+    <cellStyle name="Total 10 3 2" xfId="1610"/>
+    <cellStyle name="Total 10 3 3" xfId="1611"/>
+    <cellStyle name="Total 10 3 4" xfId="1612"/>
+    <cellStyle name="Total 10 3 5" xfId="1613"/>
+    <cellStyle name="Total 10 3 6" xfId="1614"/>
+    <cellStyle name="Total 10 3 7" xfId="1615"/>
+    <cellStyle name="Total 10 3 8" xfId="1616"/>
+    <cellStyle name="Total 10 3 9" xfId="1617"/>
+    <cellStyle name="Total 10 4" xfId="1618"/>
+    <cellStyle name="Total 10 5" xfId="1619"/>
+    <cellStyle name="Total 10 6" xfId="1620"/>
+    <cellStyle name="Total 10 7" xfId="1621"/>
+    <cellStyle name="Total 10 8" xfId="1622"/>
+    <cellStyle name="Total 10 9" xfId="1623"/>
+    <cellStyle name="Total 2" xfId="1624"/>
+    <cellStyle name="Total 2 10" xfId="1625"/>
+    <cellStyle name="Total 2 11" xfId="1626"/>
+    <cellStyle name="Total 2 12" xfId="1627"/>
+    <cellStyle name="Total 2 2" xfId="1628"/>
+    <cellStyle name="Total 2 2 10" xfId="1629"/>
+    <cellStyle name="Total 2 2 2" xfId="1630"/>
+    <cellStyle name="Total 2 2 3" xfId="1631"/>
+    <cellStyle name="Total 2 2 4" xfId="1632"/>
+    <cellStyle name="Total 2 2 5" xfId="1633"/>
+    <cellStyle name="Total 2 2 6" xfId="1634"/>
+    <cellStyle name="Total 2 2 7" xfId="1635"/>
+    <cellStyle name="Total 2 2 8" xfId="1636"/>
+    <cellStyle name="Total 2 2 9" xfId="1637"/>
+    <cellStyle name="Total 2 3" xfId="1638"/>
+    <cellStyle name="Total 2 3 10" xfId="1639"/>
+    <cellStyle name="Total 2 3 2" xfId="1640"/>
+    <cellStyle name="Total 2 3 3" xfId="1641"/>
+    <cellStyle name="Total 2 3 4" xfId="1642"/>
+    <cellStyle name="Total 2 3 5" xfId="1643"/>
+    <cellStyle name="Total 2 3 6" xfId="1644"/>
+    <cellStyle name="Total 2 3 7" xfId="1645"/>
+    <cellStyle name="Total 2 3 8" xfId="1646"/>
+    <cellStyle name="Total 2 3 9" xfId="1647"/>
+    <cellStyle name="Total 2 4" xfId="1648"/>
+    <cellStyle name="Total 2 5" xfId="1649"/>
+    <cellStyle name="Total 2 6" xfId="1650"/>
+    <cellStyle name="Total 2 7" xfId="1651"/>
+    <cellStyle name="Total 2 8" xfId="1652"/>
+    <cellStyle name="Total 2 9" xfId="1653"/>
+    <cellStyle name="Total 3" xfId="1654"/>
+    <cellStyle name="Total 3 10" xfId="1655"/>
+    <cellStyle name="Total 3 11" xfId="1656"/>
+    <cellStyle name="Total 3 12" xfId="1657"/>
+    <cellStyle name="Total 3 2" xfId="1658"/>
+    <cellStyle name="Total 3 2 10" xfId="1659"/>
+    <cellStyle name="Total 3 2 2" xfId="1660"/>
+    <cellStyle name="Total 3 2 3" xfId="1661"/>
+    <cellStyle name="Total 3 2 4" xfId="1662"/>
+    <cellStyle name="Total 3 2 5" xfId="1663"/>
+    <cellStyle name="Total 3 2 6" xfId="1664"/>
+    <cellStyle name="Total 3 2 7" xfId="1665"/>
+    <cellStyle name="Total 3 2 8" xfId="1666"/>
+    <cellStyle name="Total 3 2 9" xfId="1667"/>
+    <cellStyle name="Total 3 3" xfId="1668"/>
+    <cellStyle name="Total 3 3 10" xfId="1669"/>
+    <cellStyle name="Total 3 3 2" xfId="1670"/>
+    <cellStyle name="Total 3 3 3" xfId="1671"/>
+    <cellStyle name="Total 3 3 4" xfId="1672"/>
+    <cellStyle name="Total 3 3 5" xfId="1673"/>
+    <cellStyle name="Total 3 3 6" xfId="1674"/>
+    <cellStyle name="Total 3 3 7" xfId="1675"/>
+    <cellStyle name="Total 3 3 8" xfId="1676"/>
+    <cellStyle name="Total 3 3 9" xfId="1677"/>
+    <cellStyle name="Total 3 4" xfId="1678"/>
+    <cellStyle name="Total 3 5" xfId="1679"/>
+    <cellStyle name="Total 3 6" xfId="1680"/>
+    <cellStyle name="Total 3 7" xfId="1681"/>
+    <cellStyle name="Total 3 8" xfId="1682"/>
+    <cellStyle name="Total 3 9" xfId="1683"/>
+    <cellStyle name="Total 4" xfId="1684"/>
+    <cellStyle name="Total 4 10" xfId="1685"/>
+    <cellStyle name="Total 4 11" xfId="1686"/>
+    <cellStyle name="Total 4 12" xfId="1687"/>
+    <cellStyle name="Total 4 2" xfId="1688"/>
+    <cellStyle name="Total 4 2 10" xfId="1689"/>
+    <cellStyle name="Total 4 2 2" xfId="1690"/>
+    <cellStyle name="Total 4 2 3" xfId="1691"/>
+    <cellStyle name="Total 4 2 4" xfId="1692"/>
+    <cellStyle name="Total 4 2 5" xfId="1693"/>
+    <cellStyle name="Total 4 2 6" xfId="1694"/>
+    <cellStyle name="Total 4 2 7" xfId="1695"/>
+    <cellStyle name="Total 4 2 8" xfId="1696"/>
+    <cellStyle name="Total 4 2 9" xfId="1697"/>
+    <cellStyle name="Total 4 3" xfId="1698"/>
+    <cellStyle name="Total 4 3 10" xfId="1699"/>
+    <cellStyle name="Total 4 3 2" xfId="1700"/>
+    <cellStyle name="Total 4 3 3" xfId="1701"/>
+    <cellStyle name="Total 4 3 4" xfId="1702"/>
+    <cellStyle name="Total 4 3 5" xfId="1703"/>
+    <cellStyle name="Total 4 3 6" xfId="1704"/>
+    <cellStyle name="Total 4 3 7" xfId="1705"/>
+    <cellStyle name="Total 4 3 8" xfId="1706"/>
+    <cellStyle name="Total 4 3 9" xfId="1707"/>
+    <cellStyle name="Total 4 4" xfId="1708"/>
+    <cellStyle name="Total 4 5" xfId="1709"/>
+    <cellStyle name="Total 4 6" xfId="1710"/>
+    <cellStyle name="Total 4 7" xfId="1711"/>
+    <cellStyle name="Total 4 8" xfId="1712"/>
+    <cellStyle name="Total 4 9" xfId="1713"/>
+    <cellStyle name="Total 5" xfId="1714"/>
+    <cellStyle name="Total 5 10" xfId="1715"/>
+    <cellStyle name="Total 5 11" xfId="1716"/>
+    <cellStyle name="Total 5 12" xfId="1717"/>
+    <cellStyle name="Total 5 2" xfId="1718"/>
+    <cellStyle name="Total 5 2 10" xfId="1719"/>
+    <cellStyle name="Total 5 2 2" xfId="1720"/>
+    <cellStyle name="Total 5 2 3" xfId="1721"/>
+    <cellStyle name="Total 5 2 4" xfId="1722"/>
+    <cellStyle name="Total 5 2 5" xfId="1723"/>
+    <cellStyle name="Total 5 2 6" xfId="1724"/>
+    <cellStyle name="Total 5 2 7" xfId="1725"/>
+    <cellStyle name="Total 5 2 8" xfId="1726"/>
+    <cellStyle name="Total 5 2 9" xfId="1727"/>
+    <cellStyle name="Total 5 3" xfId="1728"/>
+    <cellStyle name="Total 5 3 10" xfId="1729"/>
+    <cellStyle name="Total 5 3 2" xfId="1730"/>
+    <cellStyle name="Total 5 3 3" xfId="1731"/>
+    <cellStyle name="Total 5 3 4" xfId="1732"/>
+    <cellStyle name="Total 5 3 5" xfId="1733"/>
+    <cellStyle name="Total 5 3 6" xfId="1734"/>
+    <cellStyle name="Total 5 3 7" xfId="1735"/>
+    <cellStyle name="Total 5 3 8" xfId="1736"/>
+    <cellStyle name="Total 5 3 9" xfId="1737"/>
+    <cellStyle name="Total 5 4" xfId="1738"/>
+    <cellStyle name="Total 5 5" xfId="1739"/>
+    <cellStyle name="Total 5 6" xfId="1740"/>
+    <cellStyle name="Total 5 7" xfId="1741"/>
+    <cellStyle name="Total 5 8" xfId="1742"/>
+    <cellStyle name="Total 5 9" xfId="1743"/>
+    <cellStyle name="Total 6" xfId="1744"/>
+    <cellStyle name="Total 6 10" xfId="1745"/>
+    <cellStyle name="Total 6 11" xfId="1746"/>
+    <cellStyle name="Total 6 12" xfId="1747"/>
+    <cellStyle name="Total 6 2" xfId="1748"/>
+    <cellStyle name="Total 6 2 10" xfId="1749"/>
+    <cellStyle name="Total 6 2 2" xfId="1750"/>
+    <cellStyle name="Total 6 2 3" xfId="1751"/>
+    <cellStyle name="Total 6 2 4" xfId="1752"/>
+    <cellStyle name="Total 6 2 5" xfId="1753"/>
+    <cellStyle name="Total 6 2 6" xfId="1754"/>
+    <cellStyle name="Total 6 2 7" xfId="1755"/>
+    <cellStyle name="Total 6 2 8" xfId="1756"/>
+    <cellStyle name="Total 6 2 9" xfId="1757"/>
+    <cellStyle name="Total 6 3" xfId="1758"/>
+    <cellStyle name="Total 6 3 10" xfId="1759"/>
+    <cellStyle name="Total 6 3 2" xfId="1760"/>
+    <cellStyle name="Total 6 3 3" xfId="1761"/>
+    <cellStyle name="Total 6 3 4" xfId="1762"/>
+    <cellStyle name="Total 6 3 5" xfId="1763"/>
+    <cellStyle name="Total 6 3 6" xfId="1764"/>
+    <cellStyle name="Total 6 3 7" xfId="1765"/>
+    <cellStyle name="Total 6 3 8" xfId="1766"/>
+    <cellStyle name="Total 6 3 9" xfId="1767"/>
+    <cellStyle name="Total 6 4" xfId="1768"/>
+    <cellStyle name="Total 6 5" xfId="1769"/>
+    <cellStyle name="Total 6 6" xfId="1770"/>
+    <cellStyle name="Total 6 7" xfId="1771"/>
+    <cellStyle name="Total 6 8" xfId="1772"/>
+    <cellStyle name="Total 6 9" xfId="1773"/>
+    <cellStyle name="Total 7" xfId="1774"/>
+    <cellStyle name="Total 7 10" xfId="1775"/>
+    <cellStyle name="Total 7 11" xfId="1776"/>
+    <cellStyle name="Total 7 12" xfId="1777"/>
+    <cellStyle name="Total 7 2" xfId="1778"/>
+    <cellStyle name="Total 7 2 10" xfId="1779"/>
+    <cellStyle name="Total 7 2 2" xfId="1780"/>
+    <cellStyle name="Total 7 2 3" xfId="1781"/>
+    <cellStyle name="Total 7 2 4" xfId="1782"/>
+    <cellStyle name="Total 7 2 5" xfId="1783"/>
+    <cellStyle name="Total 7 2 6" xfId="1784"/>
+    <cellStyle name="Total 7 2 7" xfId="1785"/>
+    <cellStyle name="Total 7 2 8" xfId="1786"/>
+    <cellStyle name="Total 7 2 9" xfId="1787"/>
+    <cellStyle name="Total 7 3" xfId="1788"/>
+    <cellStyle name="Total 7 3 10" xfId="1789"/>
+    <cellStyle name="Total 7 3 2" xfId="1790"/>
+    <cellStyle name="Total 7 3 3" xfId="1791"/>
+    <cellStyle name="Total 7 3 4" xfId="1792"/>
+    <cellStyle name="Total 7 3 5" xfId="1793"/>
+    <cellStyle name="Total 7 3 6" xfId="1794"/>
+    <cellStyle name="Total 7 3 7" xfId="1795"/>
+    <cellStyle name="Total 7 3 8" xfId="1796"/>
+    <cellStyle name="Total 7 3 9" xfId="1797"/>
+    <cellStyle name="Total 7 4" xfId="1798"/>
+    <cellStyle name="Total 7 5" xfId="1799"/>
+    <cellStyle name="Total 7 6" xfId="1800"/>
+    <cellStyle name="Total 7 7" xfId="1801"/>
+    <cellStyle name="Total 7 8" xfId="1802"/>
+    <cellStyle name="Total 7 9" xfId="1803"/>
+    <cellStyle name="Total 8" xfId="1804"/>
+    <cellStyle name="Total 8 10" xfId="1805"/>
+    <cellStyle name="Total 8 11" xfId="1806"/>
+    <cellStyle name="Total 8 12" xfId="1807"/>
+    <cellStyle name="Total 8 2" xfId="1808"/>
+    <cellStyle name="Total 8 2 10" xfId="1809"/>
+    <cellStyle name="Total 8 2 2" xfId="1810"/>
+    <cellStyle name="Total 8 2 3" xfId="1811"/>
+    <cellStyle name="Total 8 2 4" xfId="1812"/>
+    <cellStyle name="Total 8 2 5" xfId="1813"/>
+    <cellStyle name="Total 8 2 6" xfId="1814"/>
+    <cellStyle name="Total 8 2 7" xfId="1815"/>
+    <cellStyle name="Total 8 2 8" xfId="1816"/>
+    <cellStyle name="Total 8 2 9" xfId="1817"/>
+    <cellStyle name="Total 8 3" xfId="1818"/>
+    <cellStyle name="Total 8 3 10" xfId="1819"/>
+    <cellStyle name="Total 8 3 2" xfId="1820"/>
+    <cellStyle name="Total 8 3 3" xfId="1821"/>
+    <cellStyle name="Total 8 3 4" xfId="1822"/>
+    <cellStyle name="Total 8 3 5" xfId="1823"/>
+    <cellStyle name="Total 8 3 6" xfId="1824"/>
+    <cellStyle name="Total 8 3 7" xfId="1825"/>
+    <cellStyle name="Total 8 3 8" xfId="1826"/>
+    <cellStyle name="Total 8 3 9" xfId="1827"/>
+    <cellStyle name="Total 8 4" xfId="1828"/>
+    <cellStyle name="Total 8 5" xfId="1829"/>
+    <cellStyle name="Total 8 6" xfId="1830"/>
+    <cellStyle name="Total 8 7" xfId="1831"/>
+    <cellStyle name="Total 8 8" xfId="1832"/>
+    <cellStyle name="Total 8 9" xfId="1833"/>
+    <cellStyle name="Total 9" xfId="1834"/>
+    <cellStyle name="Total 9 10" xfId="1835"/>
+    <cellStyle name="Total 9 11" xfId="1836"/>
+    <cellStyle name="Total 9 12" xfId="1837"/>
+    <cellStyle name="Total 9 2" xfId="1838"/>
+    <cellStyle name="Total 9 2 10" xfId="1839"/>
+    <cellStyle name="Total 9 2 2" xfId="1840"/>
+    <cellStyle name="Total 9 2 3" xfId="1841"/>
+    <cellStyle name="Total 9 2 4" xfId="1842"/>
+    <cellStyle name="Total 9 2 5" xfId="1843"/>
+    <cellStyle name="Total 9 2 6" xfId="1844"/>
+    <cellStyle name="Total 9 2 7" xfId="1845"/>
+    <cellStyle name="Total 9 2 8" xfId="1846"/>
+    <cellStyle name="Total 9 2 9" xfId="1847"/>
+    <cellStyle name="Total 9 3" xfId="1848"/>
+    <cellStyle name="Total 9 3 10" xfId="1849"/>
+    <cellStyle name="Total 9 3 2" xfId="1850"/>
+    <cellStyle name="Total 9 3 3" xfId="1851"/>
+    <cellStyle name="Total 9 3 4" xfId="1852"/>
+    <cellStyle name="Total 9 3 5" xfId="1853"/>
+    <cellStyle name="Total 9 3 6" xfId="1854"/>
+    <cellStyle name="Total 9 3 7" xfId="1855"/>
+    <cellStyle name="Total 9 3 8" xfId="1856"/>
+    <cellStyle name="Total 9 3 9" xfId="1857"/>
+    <cellStyle name="Total 9 4" xfId="1858"/>
+    <cellStyle name="Total 9 5" xfId="1859"/>
+    <cellStyle name="Total 9 6" xfId="1860"/>
+    <cellStyle name="Total 9 7" xfId="1861"/>
+    <cellStyle name="Total 9 8" xfId="1862"/>
+    <cellStyle name="Total 9 9" xfId="1863"/>
+    <cellStyle name="Warning Text 10" xfId="1864"/>
+    <cellStyle name="Warning Text 2" xfId="1865"/>
+    <cellStyle name="Warning Text 3" xfId="1866"/>
+    <cellStyle name="Warning Text 4" xfId="1867"/>
+    <cellStyle name="Warning Text 5" xfId="1868"/>
+    <cellStyle name="Warning Text 6" xfId="1869"/>
+    <cellStyle name="Warning Text 7" xfId="1870"/>
+    <cellStyle name="Warning Text 8" xfId="1871"/>
+    <cellStyle name="Warning Text 9" xfId="1872"/>
+    <cellStyle name="Гиперссылка 2" xfId="1873"/>
+    <cellStyle name="Обычный 2" xfId="1874"/>
+    <cellStyle name="Обычный 2 2" xfId="1875"/>
+    <cellStyle name="Обычный 3" xfId="1876"/>
+    <cellStyle name="Обычный 4" xfId="1877"/>
+    <cellStyle name="Обычный 5" xfId="1878"/>
+    <cellStyle name="Обычный 5 2" xfId="1879"/>
+    <cellStyle name="Обычный 5 3" xfId="1880"/>
+    <cellStyle name="Обычный 6" xfId="1881"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -222,6 +4789,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -511,9 +5084,615 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="10" collapsed="1"/>
+    <col min="2" max="2" width="23.42578125" style="10" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.140625" style="10" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.42578125" style="10" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="9.140625" style="10" collapsed="1"/>
+    <col min="8" max="8" width="18" style="10" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.28515625" style="10" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.5703125" style="10" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="10" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="14">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="H3" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="14">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="H4" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="14">
+        <v>5</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="H5" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="14">
+        <v>5</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="H6" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="14">
+        <v>5</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="14">
+        <v>5</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="14">
+        <v>5</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="14">
+        <v>5</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="H18" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="14">
+        <v>5</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="H19" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="14">
+        <v>5</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="H20" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="14">
+        <v>5</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="H21" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="14">
+        <v>5</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="14">
+        <v>5</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="14">
+        <v>5</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="H33" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="14">
+        <v>5</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="H34" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="14">
+        <v>5</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="H35" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="14">
+        <v>5</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="H36" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="14">
+        <v>5</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="14">
+        <v>5</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="14">
+        <v>5</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="14">
+        <v>5</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="14">
+        <v>5</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="14">
+        <v>5</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="14">
+        <v>5</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="14">
+        <v>5</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B42:D42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
